--- a/data/EXP 2/exp2_run1_PCR.xlsx
+++ b/data/EXP 2/exp2_run1_PCR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C5DF9A-461F-8B43-B7A9-8888E8B0112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8028D2A0-6DA1-BB42-B4E8-66AE71AF1833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="780" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="780" windowWidth="27780" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="melt curve peaks" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -5306,7 +5306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D1C77-129B-D043-927C-FCCCF9546E4E}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/data/EXP 2/exp2_run1_PCR.xlsx
+++ b/data/EXP 2/exp2_run1_PCR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8028D2A0-6DA1-BB42-B4E8-66AE71AF1833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382787C6-71A6-A044-BC39-89D98C100CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="780" windowWidth="27780" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="740" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="melt curve peaks" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,27 @@
     <sheet name="Cq plate" sheetId="5" r:id="rId4"/>
     <sheet name="Run Information" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateCount="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cq results'!$E$1:$E$97</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="149">
   <si>
     <t>Well</t>
   </si>
@@ -459,6 +474,18 @@
   </si>
   <si>
     <t>Cq Std. Dev</t>
+  </si>
+  <si>
+    <t>HSC70</t>
+  </si>
+  <si>
+    <t>GABB45</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -468,9 +495,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="###0.00;\-###0.00"/>
     <numFmt numFmtId="165" formatCode="###0;\-###0"/>
-    <numFmt numFmtId="170" formatCode="###0.000;\-###0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000;\-###0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
@@ -554,6 +581,17 @@
     </font>
     <font>
       <b/>
+      <sz val="8.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8.25"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft Sans Serif"/>
@@ -681,7 +719,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -784,6 +822,19 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -796,17 +847,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -4312,7 +4363,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -4356,7 +4407,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
@@ -4374,7 +4425,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="21" t="s">
         <v>133</v>
       </c>
@@ -4416,7 +4467,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="26" t="s">
         <v>134</v>
       </c>
@@ -4434,7 +4485,7 @@
       <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4478,7 +4529,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
@@ -4496,7 +4547,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
         <v>133</v>
       </c>
@@ -4538,7 +4589,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="26" t="s">
         <v>134</v>
       </c>
@@ -4556,7 +4607,7 @@
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -4600,7 +4651,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
@@ -4618,7 +4669,7 @@
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="21" t="s">
         <v>133</v>
       </c>
@@ -4660,7 +4711,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="26" t="s">
         <v>134</v>
       </c>
@@ -4678,7 +4729,7 @@
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -4722,7 +4773,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
@@ -4740,7 +4791,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="21" t="s">
         <v>133</v>
       </c>
@@ -4782,7 +4833,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="26" t="s">
         <v>134</v>
       </c>
@@ -4800,7 +4851,7 @@
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -4844,7 +4895,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="21" t="s">
         <v>4</v>
       </c>
@@ -4862,7 +4913,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="21" t="s">
         <v>133</v>
       </c>
@@ -4904,7 +4955,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="26" t="s">
         <v>134</v>
       </c>
@@ -4922,7 +4973,7 @@
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -4966,7 +5017,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="21" t="s">
         <v>4</v>
       </c>
@@ -4984,7 +5035,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="21" t="s">
         <v>133</v>
       </c>
@@ -5026,7 +5077,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="26" t="s">
         <v>134</v>
       </c>
@@ -5044,7 +5095,7 @@
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="33" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -5088,7 +5139,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="21" t="s">
         <v>4</v>
       </c>
@@ -5106,7 +5157,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="21" t="s">
         <v>133</v>
       </c>
@@ -5148,7 +5199,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="26" t="s">
         <v>134</v>
       </c>
@@ -5166,7 +5217,7 @@
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="33" t="s">
         <v>141</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -5210,7 +5261,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="21" t="s">
         <v>4</v>
       </c>
@@ -5228,7 +5279,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="30"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="21" t="s">
         <v>133</v>
       </c>
@@ -5270,7 +5321,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="26" t="s">
         <v>134</v>
       </c>
@@ -5306,2077 +5357,2109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D1C77-129B-D043-927C-FCCCF9546E4E}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="37">
+        <v>50</v>
+      </c>
+      <c r="F2" s="31">
+        <v>36.17</v>
+      </c>
+      <c r="G2">
+        <v>36.515000000000001</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0.48790367901871617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="37">
+        <v>50</v>
+      </c>
+      <c r="F3" s="31">
+        <v>36.86</v>
+      </c>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="37">
+        <v>51</v>
+      </c>
+      <c r="F4" s="31">
+        <v>39.08</v>
+      </c>
+      <c r="G4">
+        <v>39.08</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="37">
+        <v>51</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="37">
+        <v>52</v>
+      </c>
+      <c r="F6" s="31">
+        <v>36.01</v>
+      </c>
+      <c r="G6">
+        <v>36.11</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.14142135623731153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="37">
+        <v>52</v>
+      </c>
+      <c r="F7" s="31">
+        <v>36.21</v>
+      </c>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="37">
+        <v>54</v>
+      </c>
+      <c r="F8" s="31">
+        <v>36.25</v>
+      </c>
+      <c r="G8">
+        <v>36.620000000000005</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0.52325901807804653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="37">
+        <v>54</v>
+      </c>
+      <c r="F9" s="31">
+        <v>36.99</v>
+      </c>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="37">
+        <v>55</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="37">
+        <v>55</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="37">
+        <v>59</v>
+      </c>
+      <c r="F12" s="31">
+        <v>29.53</v>
+      </c>
+      <c r="G12">
+        <v>29.645000000000003</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0.16263455967290624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="37">
+        <v>59</v>
+      </c>
+      <c r="F13" s="31">
+        <v>29.76</v>
+      </c>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="37">
+        <v>71</v>
+      </c>
+      <c r="F14" s="31">
+        <v>39.24</v>
+      </c>
+      <c r="G14">
+        <v>39.120000000000005</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0.1697056274847728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="37">
+        <v>71</v>
+      </c>
+      <c r="F15" s="31">
+        <v>39</v>
+      </c>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="37">
+        <v>73</v>
+      </c>
+      <c r="F16" s="31">
+        <v>36.01</v>
+      </c>
+      <c r="G16">
+        <v>36.209999999999994</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0.28284271247461801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="37">
+        <v>73</v>
+      </c>
+      <c r="F17" s="31">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="37">
+        <v>76</v>
+      </c>
+      <c r="F18" s="31">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="G18">
+        <v>38.150000000000006</v>
+      </c>
+      <c r="H18" s="32">
+        <v>0.18384776310850096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="37">
+        <v>76</v>
+      </c>
+      <c r="F19" s="31">
+        <v>38.28</v>
+      </c>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="37">
+        <v>77</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="37">
+        <v>77</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="37">
+        <v>80</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="37">
+        <v>80</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="37">
+        <v>83</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="37">
+        <v>83</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="37">
+        <v>90</v>
+      </c>
+      <c r="F26" s="31">
+        <v>37.83</v>
+      </c>
+      <c r="G26">
+        <v>37.594999999999999</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.33234018715767655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="37">
+        <v>90</v>
+      </c>
+      <c r="F27" s="31">
+        <v>37.36</v>
+      </c>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="37">
+        <v>91</v>
+      </c>
+      <c r="F28" s="31">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="G28">
+        <v>38.984999999999999</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0.50204581464244935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="37">
+        <v>91</v>
+      </c>
+      <c r="F29" s="31">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="37">
+        <v>92</v>
+      </c>
+      <c r="F30" s="31">
+        <v>39.6</v>
+      </c>
+      <c r="G30">
+        <v>39.6</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="37">
+        <v>92</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="37">
+        <v>94</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="37">
+        <v>94</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="37">
+        <v>95</v>
+      </c>
+      <c r="F34" s="31">
+        <v>34.64</v>
+      </c>
+      <c r="G34">
+        <v>34.545000000000002</v>
+      </c>
+      <c r="H34" s="32">
+        <v>0.13435028842544242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="37">
+        <v>95</v>
+      </c>
+      <c r="F35" s="31">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="37">
+        <v>96</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36">
+        <v>38.08</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="37">
+        <v>96</v>
+      </c>
+      <c r="F37" s="31">
+        <v>38.08</v>
+      </c>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="H38" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="31"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="31"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="31"/>
+      <c r="H42" s="32"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="31"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="31"/>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="31"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="31"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="31"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="31"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="31"/>
+      <c r="H51" s="32"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="31"/>
+      <c r="H52" s="32"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="31"/>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="31"/>
+      <c r="H54" s="32"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="37"/>
+      <c r="F55" s="31"/>
+      <c r="H55" s="32"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="37"/>
+      <c r="F56" s="31"/>
+      <c r="H56" s="32"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="37"/>
+      <c r="F57" s="31"/>
+      <c r="H57" s="32"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34">
+      <c r="B58" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="36">
+        <v>50</v>
+      </c>
+      <c r="F58" s="31">
         <v>31.32</v>
       </c>
-      <c r="G2" s="34">
-        <v>31.32</v>
-      </c>
-      <c r="H2" s="35">
+      <c r="G58">
+        <v>31.060000000000002</v>
+      </c>
+      <c r="H58" s="32">
+        <v>0.36769552621700441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="36">
+        <v>50</v>
+      </c>
+      <c r="F59" s="31">
+        <v>30.8</v>
+      </c>
+      <c r="H59" s="32"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="36">
+        <v>51</v>
+      </c>
+      <c r="F60" s="31">
+        <v>25.89</v>
+      </c>
+      <c r="G60">
+        <v>25.62</v>
+      </c>
+      <c r="H60" s="32">
+        <v>0.38183766184073509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="36">
+        <v>51</v>
+      </c>
+      <c r="F61" s="31">
+        <v>25.35</v>
+      </c>
+      <c r="H61" s="32"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="36">
+        <v>52</v>
+      </c>
+      <c r="F62" s="31">
+        <v>33.4</v>
+      </c>
+      <c r="G62">
+        <v>33.825000000000003</v>
+      </c>
+      <c r="H62" s="32">
+        <v>0.60104076400856643</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="36">
+        <v>52</v>
+      </c>
+      <c r="F63" s="31">
+        <v>34.25</v>
+      </c>
+      <c r="H63" s="32"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="36">
+        <v>54</v>
+      </c>
+      <c r="F64" s="31">
+        <v>28.06</v>
+      </c>
+      <c r="G64">
+        <v>28.055</v>
+      </c>
+      <c r="H64" s="32">
+        <v>7.0710678118640685E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="36">
+        <v>54</v>
+      </c>
+      <c r="F65" s="31">
+        <v>28.05</v>
+      </c>
+      <c r="H65" s="32"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="36">
+        <v>55</v>
+      </c>
+      <c r="F66" s="31">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="G66">
+        <v>38.255000000000003</v>
+      </c>
+      <c r="H66" s="32">
+        <v>0.5868986283848332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="36">
+        <v>55</v>
+      </c>
+      <c r="F67" s="31">
+        <v>38.67</v>
+      </c>
+      <c r="H67" s="32"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="36">
+        <v>59</v>
+      </c>
+      <c r="F68" s="31">
+        <v>27.35</v>
+      </c>
+      <c r="G68">
+        <v>27.59</v>
+      </c>
+      <c r="H68" s="32">
+        <v>0.33941125496954061</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="36">
+        <v>59</v>
+      </c>
+      <c r="F69" s="31">
+        <v>27.83</v>
+      </c>
+      <c r="H69" s="32"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="36">
+        <v>71</v>
+      </c>
+      <c r="F70" s="31">
+        <v>27.49</v>
+      </c>
+      <c r="G70">
+        <v>27.604999999999997</v>
+      </c>
+      <c r="H70" s="32">
+        <v>0.16263455967290624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="36">
+        <v>71</v>
+      </c>
+      <c r="F71" s="31">
+        <v>27.72</v>
+      </c>
+      <c r="H71" s="32"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="36">
+        <v>73</v>
+      </c>
+      <c r="F72" s="31">
+        <v>29.5</v>
+      </c>
+      <c r="G72">
+        <v>29.725000000000001</v>
+      </c>
+      <c r="H72" s="32">
+        <v>0.31819805153394587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="36">
+        <v>73</v>
+      </c>
+      <c r="F73" s="31">
+        <v>29.95</v>
+      </c>
+      <c r="H73" s="32"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="36">
+        <v>76</v>
+      </c>
+      <c r="F74" s="31">
+        <v>27.24</v>
+      </c>
+      <c r="G74">
+        <v>27.689999999999998</v>
+      </c>
+      <c r="H74" s="32">
+        <v>0.63639610306789429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="36">
+        <v>76</v>
+      </c>
+      <c r="F75" s="31">
+        <v>28.14</v>
+      </c>
+      <c r="H75" s="32"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="38">
+        <v>77</v>
+      </c>
+      <c r="F76" s="39">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="G76" s="40">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="H76" s="41">
+        <v>5.006316010800739</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="38">
+        <v>77</v>
+      </c>
+      <c r="F77" s="39">
+        <v>27.26</v>
+      </c>
+      <c r="G77" s="40"/>
+      <c r="H77" s="41"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="38">
+        <v>80</v>
+      </c>
+      <c r="F78" s="39">
+        <v>30.84</v>
+      </c>
+      <c r="G78" s="40">
+        <v>33.015000000000001</v>
+      </c>
+      <c r="H78" s="41">
+        <v>3.0759144981614801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="38">
+        <v>80</v>
+      </c>
+      <c r="F79" s="39">
+        <v>35.19</v>
+      </c>
+      <c r="G79" s="40"/>
+      <c r="H79" s="41"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="36">
+        <v>83</v>
+      </c>
+      <c r="F80" s="31">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="G80">
+        <v>35.6</v>
+      </c>
+      <c r="H80" s="32">
+        <v>0.24041630560342858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="36">
+        <v>83</v>
+      </c>
+      <c r="F81" s="31">
+        <v>35.43</v>
+      </c>
+      <c r="H81" s="32"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="36">
+        <v>90</v>
+      </c>
+      <c r="F82" s="31">
+        <v>27.41</v>
+      </c>
+      <c r="G82">
+        <v>27.41</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="36">
+        <v>90</v>
+      </c>
+      <c r="F83" s="31"/>
+      <c r="H83" s="32"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="36">
+        <v>91</v>
+      </c>
+      <c r="F84" s="31">
+        <v>28.66</v>
+      </c>
+      <c r="G84">
+        <v>28.490000000000002</v>
+      </c>
+      <c r="H84" s="32">
+        <v>0.24041630560342606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="36">
+        <v>91</v>
+      </c>
+      <c r="F85" s="31">
+        <v>28.32</v>
+      </c>
+      <c r="H85" s="32"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="36">
+        <v>92</v>
+      </c>
+      <c r="F86" s="31">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="G86">
+        <v>33.935000000000002</v>
+      </c>
+      <c r="H86" s="32">
+        <v>1.0253048327204908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="36">
+        <v>92</v>
+      </c>
+      <c r="F87" s="31">
+        <v>33.21</v>
+      </c>
+      <c r="H87" s="32"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="36">
+        <v>94</v>
+      </c>
+      <c r="F88" s="31">
+        <v>35.51</v>
+      </c>
+      <c r="G88">
+        <v>35.405000000000001</v>
+      </c>
+      <c r="H88" s="32">
+        <v>0.14849242404917559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="36">
+        <v>94</v>
+      </c>
+      <c r="F89" s="31">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H89" s="32"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="36">
+        <v>95</v>
+      </c>
+      <c r="F90" s="31">
+        <v>26.65</v>
+      </c>
+      <c r="G90">
+        <v>26.634999999999998</v>
+      </c>
+      <c r="H90" s="32">
+        <v>2.1213203435594716E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="36">
+        <v>95</v>
+      </c>
+      <c r="F91" s="31">
+        <v>26.62</v>
+      </c>
+      <c r="H91" s="32"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="36">
+        <v>96</v>
+      </c>
+      <c r="F92" s="31">
+        <v>27.28</v>
+      </c>
+      <c r="G92">
+        <v>27.553333333333331</v>
+      </c>
+      <c r="H92" s="32">
+        <v>0.23755701070129112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="36">
+        <v>96</v>
+      </c>
+      <c r="F93" s="31">
+        <v>27.71</v>
+      </c>
+      <c r="H93" s="32"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="36">
+        <v>96</v>
+      </c>
+      <c r="F94" s="31">
+        <v>27.67</v>
+      </c>
+      <c r="H94" s="32"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="31"/>
+      <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34">
-        <v>37.840000000000003</v>
-      </c>
-      <c r="G3" s="34">
-        <v>37.840000000000003</v>
-      </c>
-      <c r="H3" s="35">
+      <c r="H95" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34">
-        <v>27.24</v>
-      </c>
-      <c r="G4" s="34">
-        <v>27.24</v>
-      </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34">
-        <v>27.28</v>
-      </c>
-      <c r="G5" s="34">
-        <v>27.28</v>
-      </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34">
-        <v>35.51</v>
-      </c>
-      <c r="G6" s="34">
-        <v>35.51</v>
-      </c>
-      <c r="H6" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34">
-        <v>36.17</v>
-      </c>
-      <c r="G8" s="34">
-        <v>36.17</v>
-      </c>
-      <c r="H8" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34">
-        <v>0</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="G10" s="34">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="H10" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34">
-        <v>37.83</v>
-      </c>
-      <c r="G11" s="34">
-        <v>37.83</v>
-      </c>
-      <c r="H11" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34">
-        <v>34.64</v>
-      </c>
-      <c r="G12" s="34">
-        <v>34.64</v>
-      </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34">
-        <v>30.8</v>
-      </c>
-      <c r="G14" s="34">
-        <v>30.8</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34">
-        <v>38.67</v>
-      </c>
-      <c r="G15" s="34">
-        <v>38.67</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34">
-        <v>28.14</v>
-      </c>
-      <c r="G16" s="34">
-        <v>28.14</v>
-      </c>
-      <c r="H16" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34">
-        <v>27.71</v>
-      </c>
-      <c r="G17" s="34">
-        <v>27.71</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34">
-        <v>26.65</v>
-      </c>
-      <c r="G18" s="34">
-        <v>26.65</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34">
-        <v>0</v>
-      </c>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34">
-        <v>36.86</v>
-      </c>
-      <c r="G20" s="34">
-        <v>36.86</v>
-      </c>
-      <c r="H20" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34">
-        <v>0</v>
-      </c>
-      <c r="H21" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34">
-        <v>38.28</v>
-      </c>
-      <c r="G22" s="34">
-        <v>38.28</v>
-      </c>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34">
-        <v>37.36</v>
-      </c>
-      <c r="G23" s="34">
-        <v>37.36</v>
-      </c>
-      <c r="H23" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="G24" s="34">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="H24" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34">
-        <v>25.89</v>
-      </c>
-      <c r="G26" s="34">
-        <v>25.89</v>
-      </c>
-      <c r="H26" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34">
-        <v>27.35</v>
-      </c>
-      <c r="G27" s="34">
-        <v>27.35</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="G28" s="34">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="H28" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34">
-        <v>27.67</v>
-      </c>
-      <c r="G29" s="34">
-        <v>27.67</v>
-      </c>
-      <c r="H29" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34">
-        <v>26.62</v>
-      </c>
-      <c r="G30" s="34">
-        <v>26.62</v>
-      </c>
-      <c r="H30" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34">
-        <v>0</v>
-      </c>
-      <c r="H31" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34">
-        <v>39.08</v>
-      </c>
-      <c r="G32" s="34">
-        <v>39.08</v>
-      </c>
-      <c r="H32" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34">
-        <v>29.53</v>
-      </c>
-      <c r="G33" s="34">
-        <v>29.53</v>
-      </c>
-      <c r="H33" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34">
-        <v>38.630000000000003</v>
-      </c>
-      <c r="G35" s="34">
-        <v>38.630000000000003</v>
-      </c>
-      <c r="H35" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34">
-        <v>0</v>
-      </c>
-      <c r="H36" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34">
-        <v>0</v>
-      </c>
-      <c r="H37" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34">
-        <v>25.35</v>
-      </c>
-      <c r="G38" s="34">
-        <v>25.35</v>
-      </c>
-      <c r="H38" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34">
-        <v>27.83</v>
-      </c>
-      <c r="G39" s="34">
-        <v>27.83</v>
-      </c>
-      <c r="H39" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34">
-        <v>27.26</v>
-      </c>
-      <c r="G40" s="34">
-        <v>27.26</v>
-      </c>
-      <c r="H40" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34">
-        <v>28.66</v>
-      </c>
-      <c r="G41" s="34">
-        <v>28.66</v>
-      </c>
-      <c r="H41" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34">
-        <v>27.41</v>
-      </c>
-      <c r="G42" s="34">
-        <v>27.41</v>
-      </c>
-      <c r="H42" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34">
-        <v>0</v>
-      </c>
-      <c r="H43" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34">
-        <v>0</v>
-      </c>
-      <c r="H44" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34">
-        <v>29.76</v>
-      </c>
-      <c r="G45" s="34">
-        <v>29.76</v>
-      </c>
-      <c r="H45" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34">
-        <v>0</v>
-      </c>
-      <c r="H46" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34">
-        <v>39.340000000000003</v>
-      </c>
-      <c r="G47" s="34">
-        <v>39.340000000000003</v>
-      </c>
-      <c r="H47" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34">
-        <v>38.08</v>
-      </c>
-      <c r="G48" s="34">
-        <v>38.08</v>
-      </c>
-      <c r="H48" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34">
-        <v>0</v>
-      </c>
-      <c r="H49" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34">
-        <v>33.4</v>
-      </c>
-      <c r="G50" s="34">
-        <v>33.4</v>
-      </c>
-      <c r="H50" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34">
-        <v>27.49</v>
-      </c>
-      <c r="G51" s="34">
-        <v>27.49</v>
-      </c>
-      <c r="H51" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34">
-        <v>30.84</v>
-      </c>
-      <c r="G52" s="34">
-        <v>30.84</v>
-      </c>
-      <c r="H52" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34">
-        <v>28.32</v>
-      </c>
-      <c r="G53" s="34">
-        <v>28.32</v>
-      </c>
-      <c r="H53" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34">
-        <v>0</v>
-      </c>
-      <c r="H54" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34">
-        <v>0</v>
-      </c>
-      <c r="H55" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34">
-        <v>36.01</v>
-      </c>
-      <c r="G56" s="34">
-        <v>36.01</v>
-      </c>
-      <c r="H56" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34">
-        <v>39.24</v>
-      </c>
-      <c r="G57" s="34">
-        <v>39.24</v>
-      </c>
-      <c r="H57" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34">
-        <v>0</v>
-      </c>
-      <c r="H58" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34">
-        <v>39.6</v>
-      </c>
-      <c r="G59" s="34">
-        <v>39.6</v>
-      </c>
-      <c r="H59" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34">
-        <v>0</v>
-      </c>
-      <c r="H60" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34">
-        <v>0</v>
-      </c>
-      <c r="H61" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34">
-        <v>34.25</v>
-      </c>
-      <c r="G62" s="34">
-        <v>34.25</v>
-      </c>
-      <c r="H62" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34">
-        <v>27.72</v>
-      </c>
-      <c r="G63" s="34">
-        <v>27.72</v>
-      </c>
-      <c r="H63" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34">
-        <v>35.19</v>
-      </c>
-      <c r="G64" s="34">
-        <v>35.19</v>
-      </c>
-      <c r="H64" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="G65" s="34">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="H65" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34">
-        <v>0</v>
-      </c>
-      <c r="H66" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34">
-        <v>0</v>
-      </c>
-      <c r="H67" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="33"/>
-      <c r="F68" s="34">
-        <v>36.21</v>
-      </c>
-      <c r="G68" s="34">
-        <v>36.21</v>
-      </c>
-      <c r="H68" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34">
-        <v>39</v>
-      </c>
-      <c r="G69" s="34">
-        <v>39</v>
-      </c>
-      <c r="H69" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34">
-        <v>0</v>
-      </c>
-      <c r="H70" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="33"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34">
-        <v>0</v>
-      </c>
-      <c r="H71" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="33"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34">
-        <v>0</v>
-      </c>
-      <c r="H72" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="33"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34">
-        <v>0</v>
-      </c>
-      <c r="H73" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34">
-        <v>28.06</v>
-      </c>
-      <c r="G74" s="34">
-        <v>28.06</v>
-      </c>
-      <c r="H74" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="34">
-        <v>29.5</v>
-      </c>
-      <c r="G75" s="34">
-        <v>29.5</v>
-      </c>
-      <c r="H75" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="34">
-        <v>35.770000000000003</v>
-      </c>
-      <c r="G76" s="34">
-        <v>35.770000000000003</v>
-      </c>
-      <c r="H76" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="33"/>
-      <c r="F77" s="34">
-        <v>33.21</v>
-      </c>
-      <c r="G77" s="34">
-        <v>33.21</v>
-      </c>
-      <c r="H77" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="33" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34">
-        <v>0</v>
-      </c>
-      <c r="H78" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34">
-        <v>0</v>
-      </c>
-      <c r="H79" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="33"/>
-      <c r="F80" s="34">
-        <v>36.25</v>
-      </c>
-      <c r="G80" s="34">
-        <v>36.25</v>
-      </c>
-      <c r="H80" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="34">
-        <v>36.01</v>
-      </c>
-      <c r="G81" s="34">
-        <v>36.01</v>
-      </c>
-      <c r="H81" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34">
-        <v>0</v>
-      </c>
-      <c r="H82" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="33"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34">
-        <v>0</v>
-      </c>
-      <c r="H83" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A84" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="33"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34">
-        <v>0</v>
-      </c>
-      <c r="H84" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A85" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="33"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34">
-        <v>0</v>
-      </c>
-      <c r="H85" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A86" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="33"/>
-      <c r="F86" s="34">
-        <v>28.05</v>
-      </c>
-      <c r="G86" s="34">
-        <v>28.05</v>
-      </c>
-      <c r="H86" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A87" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="33"/>
-      <c r="F87" s="34">
-        <v>29.95</v>
-      </c>
-      <c r="G87" s="34">
-        <v>29.95</v>
-      </c>
-      <c r="H87" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="33"/>
-      <c r="F88" s="34">
-        <v>35.43</v>
-      </c>
-      <c r="G88" s="34">
-        <v>35.43</v>
-      </c>
-      <c r="H88" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="34">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="G89" s="34">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="H89" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A90" s="33" t="s">
+      <c r="B96" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="36"/>
+      <c r="F96" s="31"/>
+      <c r="H96" s="32"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34">
-        <v>0</v>
-      </c>
-      <c r="H90" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A91" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34">
-        <v>0</v>
-      </c>
-      <c r="H91" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A92" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="33"/>
-      <c r="F92" s="34">
-        <v>36.99</v>
-      </c>
-      <c r="G92" s="34">
-        <v>36.99</v>
-      </c>
-      <c r="H92" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A93" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="33"/>
-      <c r="F93" s="34">
-        <v>36.409999999999997</v>
-      </c>
-      <c r="G93" s="34">
-        <v>36.409999999999997</v>
-      </c>
-      <c r="H93" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A94" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="33"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34">
-        <v>0</v>
-      </c>
-      <c r="H94" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A95" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34">
-        <v>0</v>
-      </c>
-      <c r="H95" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A96" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="33"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34">
-        <v>0</v>
-      </c>
-      <c r="H96" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A97" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="33"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34">
-        <v>0</v>
-      </c>
-      <c r="H97" s="35">
-        <v>0</v>
-      </c>
+      <c r="B97" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="31"/>
+      <c r="H97" s="32"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G98">
+    <sortCondition ref="C1:C98"/>
+  </sortState>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7432,7 +7515,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7476,7 +7559,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7494,7 +7577,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="26" t="s">
         <v>142</v>
       </c>
@@ -7530,7 +7613,7 @@
       <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -7574,7 +7657,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
@@ -7592,7 +7675,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="26" t="s">
         <v>142</v>
       </c>
@@ -7628,7 +7711,7 @@
       <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -7672,7 +7755,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
@@ -7690,7 +7773,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="26" t="s">
         <v>142</v>
       </c>
@@ -7724,7 +7807,7 @@
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -7768,7 +7851,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
@@ -7786,7 +7869,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="26" t="s">
         <v>142</v>
       </c>
@@ -7820,7 +7903,7 @@
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -7864,7 +7947,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
@@ -7882,7 +7965,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="26" t="s">
         <v>142</v>
       </c>
@@ -7914,7 +7997,7 @@
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -7958,7 +8041,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="21" t="s">
         <v>4</v>
       </c>
@@ -7976,7 +8059,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="26" t="s">
         <v>142</v>
       </c>
@@ -8006,7 +8089,7 @@
       <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="33" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -8050,7 +8133,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="21" t="s">
         <v>4</v>
       </c>
@@ -8068,7 +8151,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="26" t="s">
         <v>142</v>
       </c>
@@ -8098,7 +8181,7 @@
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="33" t="s">
         <v>141</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -8142,7 +8225,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="21" t="s">
         <v>4</v>
       </c>
@@ -8160,7 +8243,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="26" t="s">
         <v>142</v>
       </c>

--- a/data/EXP 2/exp2_run1_PCR.xlsx
+++ b/data/EXP 2/exp2_run1_PCR.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382787C6-71A6-A044-BC39-89D98C100CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B226F3A-9F3D-6646-B878-94D8EA2FA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="740" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="740" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="melt curve peaks" sheetId="1" r:id="rId1"/>
-    <sheet name="melt curve plate" sheetId="3" r:id="rId2"/>
-    <sheet name="Cq results" sheetId="4" r:id="rId3"/>
-    <sheet name="Cq plate" sheetId="5" r:id="rId4"/>
-    <sheet name="Run Information" sheetId="2" r:id="rId5"/>
+    <sheet name="Cq results" sheetId="4" r:id="rId1"/>
+    <sheet name="Cq summary" sheetId="6" r:id="rId2"/>
+    <sheet name="melt curve peaks" sheetId="1" r:id="rId3"/>
+    <sheet name="melt curve plate" sheetId="3" r:id="rId4"/>
+    <sheet name="Cq plate" sheetId="5" r:id="rId5"/>
+    <sheet name="Run Information" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cq results'!$E$1:$E$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cq results'!$E$1:$E$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cq summary'!$D$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="177">
   <si>
     <t>Well</t>
   </si>
@@ -486,6 +488,90 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>Housekeeping Gene (GABB45)</t>
+  </si>
+  <si>
+    <t>Gene of Interest (HSC70)</t>
+  </si>
+  <si>
+    <t>average Cq</t>
+  </si>
+  <si>
+    <t>Delta Cq</t>
+  </si>
+  <si>
+    <t>Delta Delta Cq</t>
+  </si>
+  <si>
+    <t>average delta Cq control</t>
+  </si>
+  <si>
+    <t>2^-DeltaDeltaCq</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>C-90</t>
+  </si>
+  <si>
+    <t>C-91</t>
+  </si>
+  <si>
+    <t>C-92</t>
+  </si>
+  <si>
+    <t>C-94</t>
+  </si>
+  <si>
+    <t>C-95</t>
+  </si>
+  <si>
+    <t>C-96</t>
+  </si>
+  <si>
+    <t>B-71</t>
+  </si>
+  <si>
+    <t>B-73</t>
+  </si>
+  <si>
+    <t>B-76</t>
+  </si>
+  <si>
+    <t>B-77</t>
+  </si>
+  <si>
+    <t>B-80</t>
+  </si>
+  <si>
+    <t>B-83</t>
+  </si>
+  <si>
+    <t>A-50</t>
+  </si>
+  <si>
+    <t>A-51</t>
+  </si>
+  <si>
+    <t>A-52</t>
+  </si>
+  <si>
+    <t>A-54</t>
+  </si>
+  <si>
+    <t>A-55</t>
+  </si>
+  <si>
+    <t>A-59</t>
+  </si>
+  <si>
+    <t>A Treatment</t>
+  </si>
+  <si>
+    <t>B Treatment</t>
   </si>
 </sst>
 </file>
@@ -497,7 +583,7 @@
     <numFmt numFmtId="165" formatCode="###0;\-###0"/>
     <numFmt numFmtId="166" formatCode="###0.000;\-###0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
@@ -506,67 +592,67 @@
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
@@ -589,7 +675,7 @@
     <font>
       <sz val="8"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
@@ -597,8 +683,14 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,8 +727,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -712,6 +822,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -719,7 +891,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -835,6 +1007,19 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -847,18 +1032,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,6 +1414,2873 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D1C77-129B-D043-927C-FCCCF9546E4E}">
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView topLeftCell="C50" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58:G92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="34">
+        <v>50</v>
+      </c>
+      <c r="F2" s="31">
+        <v>36.17</v>
+      </c>
+      <c r="G2">
+        <v>36.515000000000001</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0.48790367901871617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="34">
+        <v>50</v>
+      </c>
+      <c r="F3" s="31">
+        <v>36.86</v>
+      </c>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="34">
+        <v>51</v>
+      </c>
+      <c r="F4" s="31">
+        <v>39.08</v>
+      </c>
+      <c r="G4">
+        <v>39.08</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="34">
+        <v>51</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="34">
+        <v>52</v>
+      </c>
+      <c r="F6" s="31">
+        <v>36.01</v>
+      </c>
+      <c r="G6">
+        <v>36.11</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.14142135623731153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="34">
+        <v>52</v>
+      </c>
+      <c r="F7" s="31">
+        <v>36.21</v>
+      </c>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="34">
+        <v>54</v>
+      </c>
+      <c r="F8" s="31">
+        <v>36.25</v>
+      </c>
+      <c r="G8">
+        <v>36.620000000000005</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0.52325901807804653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="34">
+        <v>54</v>
+      </c>
+      <c r="F9" s="31">
+        <v>36.99</v>
+      </c>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="34">
+        <v>55</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="34">
+        <v>55</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="34">
+        <v>59</v>
+      </c>
+      <c r="F12" s="31">
+        <v>29.53</v>
+      </c>
+      <c r="G12">
+        <v>29.645000000000003</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0.16263455967290624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="34">
+        <v>59</v>
+      </c>
+      <c r="F13" s="31">
+        <v>29.76</v>
+      </c>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="34">
+        <v>71</v>
+      </c>
+      <c r="F14" s="31">
+        <v>39.24</v>
+      </c>
+      <c r="G14">
+        <v>39.120000000000005</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0.1697056274847728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="34">
+        <v>71</v>
+      </c>
+      <c r="F15" s="31">
+        <v>39</v>
+      </c>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="34">
+        <v>73</v>
+      </c>
+      <c r="F16" s="31">
+        <v>36.01</v>
+      </c>
+      <c r="G16">
+        <v>36.209999999999994</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0.28284271247461801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="34">
+        <v>73</v>
+      </c>
+      <c r="F17" s="31">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="34">
+        <v>76</v>
+      </c>
+      <c r="F18" s="31">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="G18">
+        <v>38.150000000000006</v>
+      </c>
+      <c r="H18" s="32">
+        <v>0.18384776310850096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="34">
+        <v>76</v>
+      </c>
+      <c r="F19" s="31">
+        <v>38.28</v>
+      </c>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="34">
+        <v>77</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="34">
+        <v>77</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="34">
+        <v>80</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="34">
+        <v>80</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="34">
+        <v>83</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="34">
+        <v>83</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="34">
+        <v>90</v>
+      </c>
+      <c r="F26" s="31">
+        <v>37.83</v>
+      </c>
+      <c r="G26">
+        <v>37.594999999999999</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.33234018715767655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="34">
+        <v>90</v>
+      </c>
+      <c r="F27" s="31">
+        <v>37.36</v>
+      </c>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="34">
+        <v>91</v>
+      </c>
+      <c r="F28" s="31">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="G28">
+        <v>38.984999999999999</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0.50204581464244935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="34">
+        <v>91</v>
+      </c>
+      <c r="F29" s="31">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="34">
+        <v>92</v>
+      </c>
+      <c r="F30" s="31">
+        <v>39.6</v>
+      </c>
+      <c r="G30">
+        <v>39.6</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="34">
+        <v>92</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="34">
+        <v>94</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="34">
+        <v>94</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="34">
+        <v>95</v>
+      </c>
+      <c r="F34" s="31">
+        <v>34.64</v>
+      </c>
+      <c r="G34">
+        <v>34.545000000000002</v>
+      </c>
+      <c r="H34" s="32">
+        <v>0.13435028842544242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="34">
+        <v>95</v>
+      </c>
+      <c r="F35" s="31">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="34">
+        <v>96</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36">
+        <v>38.08</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="34">
+        <v>96</v>
+      </c>
+      <c r="F37" s="31">
+        <v>38.08</v>
+      </c>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="H38" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="31"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="31"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="31"/>
+      <c r="H42" s="32"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="31"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="31"/>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="31"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="34"/>
+      <c r="F48" s="31"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="31"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="34"/>
+      <c r="F50" s="31"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" s="31"/>
+      <c r="H51" s="32"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="31"/>
+      <c r="H52" s="32"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="31"/>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="31"/>
+      <c r="H54" s="32"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="31"/>
+      <c r="H55" s="32"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="31"/>
+      <c r="H56" s="32"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="F57" s="31"/>
+      <c r="H57" s="32"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="33">
+        <v>50</v>
+      </c>
+      <c r="F58" s="31">
+        <v>31.32</v>
+      </c>
+      <c r="G58">
+        <v>31.060000000000002</v>
+      </c>
+      <c r="H58" s="32">
+        <v>0.36769552621700441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="33">
+        <v>50</v>
+      </c>
+      <c r="F59" s="31">
+        <v>30.8</v>
+      </c>
+      <c r="H59" s="32"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="33">
+        <v>51</v>
+      </c>
+      <c r="F60" s="31">
+        <v>25.89</v>
+      </c>
+      <c r="G60">
+        <v>25.62</v>
+      </c>
+      <c r="H60" s="32">
+        <v>0.38183766184073509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="33">
+        <v>51</v>
+      </c>
+      <c r="F61" s="31">
+        <v>25.35</v>
+      </c>
+      <c r="H61" s="32"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="33">
+        <v>52</v>
+      </c>
+      <c r="F62" s="31">
+        <v>33.4</v>
+      </c>
+      <c r="G62">
+        <v>33.825000000000003</v>
+      </c>
+      <c r="H62" s="32">
+        <v>0.60104076400856643</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="33">
+        <v>52</v>
+      </c>
+      <c r="F63" s="31">
+        <v>34.25</v>
+      </c>
+      <c r="H63" s="32"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="33">
+        <v>54</v>
+      </c>
+      <c r="F64" s="31">
+        <v>28.06</v>
+      </c>
+      <c r="G64">
+        <v>28.055</v>
+      </c>
+      <c r="H64" s="32">
+        <v>7.0710678118640685E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="33">
+        <v>54</v>
+      </c>
+      <c r="F65" s="31">
+        <v>28.05</v>
+      </c>
+      <c r="H65" s="32"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="33">
+        <v>55</v>
+      </c>
+      <c r="F66" s="31">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="G66">
+        <v>38.255000000000003</v>
+      </c>
+      <c r="H66" s="32">
+        <v>0.5868986283848332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="33">
+        <v>55</v>
+      </c>
+      <c r="F67" s="31">
+        <v>38.67</v>
+      </c>
+      <c r="H67" s="32"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="33">
+        <v>59</v>
+      </c>
+      <c r="F68" s="31">
+        <v>27.35</v>
+      </c>
+      <c r="G68">
+        <v>27.59</v>
+      </c>
+      <c r="H68" s="32">
+        <v>0.33941125496954061</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="33">
+        <v>59</v>
+      </c>
+      <c r="F69" s="31">
+        <v>27.83</v>
+      </c>
+      <c r="H69" s="32"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="33">
+        <v>71</v>
+      </c>
+      <c r="F70" s="31">
+        <v>27.49</v>
+      </c>
+      <c r="G70">
+        <v>27.604999999999997</v>
+      </c>
+      <c r="H70" s="32">
+        <v>0.16263455967290624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="33">
+        <v>71</v>
+      </c>
+      <c r="F71" s="31">
+        <v>27.72</v>
+      </c>
+      <c r="H71" s="32"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="33">
+        <v>73</v>
+      </c>
+      <c r="F72" s="31">
+        <v>29.5</v>
+      </c>
+      <c r="G72">
+        <v>29.725000000000001</v>
+      </c>
+      <c r="H72" s="32">
+        <v>0.31819805153394587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="33">
+        <v>73</v>
+      </c>
+      <c r="F73" s="31">
+        <v>29.95</v>
+      </c>
+      <c r="H73" s="32"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="33">
+        <v>76</v>
+      </c>
+      <c r="F74" s="31">
+        <v>27.24</v>
+      </c>
+      <c r="G74">
+        <v>27.689999999999998</v>
+      </c>
+      <c r="H74" s="32">
+        <v>0.63639610306789429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="33">
+        <v>76</v>
+      </c>
+      <c r="F75" s="31">
+        <v>28.14</v>
+      </c>
+      <c r="H75" s="32"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="35">
+        <v>77</v>
+      </c>
+      <c r="F76" s="36">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="G76" s="37">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="H76" s="38">
+        <v>5.006316010800739</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="35">
+        <v>77</v>
+      </c>
+      <c r="F77" s="36">
+        <v>27.26</v>
+      </c>
+      <c r="G77" s="37"/>
+      <c r="H77" s="38"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="35">
+        <v>80</v>
+      </c>
+      <c r="F78" s="36">
+        <v>30.84</v>
+      </c>
+      <c r="G78" s="37">
+        <v>33.015000000000001</v>
+      </c>
+      <c r="H78" s="38">
+        <v>3.0759144981614801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="35">
+        <v>80</v>
+      </c>
+      <c r="F79" s="36">
+        <v>35.19</v>
+      </c>
+      <c r="G79" s="37"/>
+      <c r="H79" s="38"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="33">
+        <v>83</v>
+      </c>
+      <c r="F80" s="31">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="G80">
+        <v>35.6</v>
+      </c>
+      <c r="H80" s="32">
+        <v>0.24041630560342858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="33">
+        <v>83</v>
+      </c>
+      <c r="F81" s="31">
+        <v>35.43</v>
+      </c>
+      <c r="H81" s="32"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="33">
+        <v>90</v>
+      </c>
+      <c r="F82" s="31">
+        <v>27.41</v>
+      </c>
+      <c r="G82">
+        <v>27.41</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="33">
+        <v>90</v>
+      </c>
+      <c r="F83" s="31"/>
+      <c r="H83" s="32"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="33">
+        <v>91</v>
+      </c>
+      <c r="F84" s="31">
+        <v>28.66</v>
+      </c>
+      <c r="G84">
+        <v>28.490000000000002</v>
+      </c>
+      <c r="H84" s="32">
+        <v>0.24041630560342606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="33">
+        <v>91</v>
+      </c>
+      <c r="F85" s="31">
+        <v>28.32</v>
+      </c>
+      <c r="H85" s="32"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="33">
+        <v>92</v>
+      </c>
+      <c r="F86" s="31">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="G86">
+        <v>33.935000000000002</v>
+      </c>
+      <c r="H86" s="32">
+        <v>1.0253048327204908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="33">
+        <v>92</v>
+      </c>
+      <c r="F87" s="31">
+        <v>33.21</v>
+      </c>
+      <c r="H87" s="32"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="33">
+        <v>94</v>
+      </c>
+      <c r="F88" s="31">
+        <v>35.51</v>
+      </c>
+      <c r="G88">
+        <v>35.405000000000001</v>
+      </c>
+      <c r="H88" s="32">
+        <v>0.14849242404917559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="33">
+        <v>94</v>
+      </c>
+      <c r="F89" s="31">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H89" s="32"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="33">
+        <v>95</v>
+      </c>
+      <c r="F90" s="31">
+        <v>26.65</v>
+      </c>
+      <c r="G90">
+        <v>26.634999999999998</v>
+      </c>
+      <c r="H90" s="32">
+        <v>2.1213203435594716E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="33">
+        <v>95</v>
+      </c>
+      <c r="F91" s="31">
+        <v>26.62</v>
+      </c>
+      <c r="H91" s="32"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="33">
+        <v>96</v>
+      </c>
+      <c r="F92" s="31">
+        <v>27.28</v>
+      </c>
+      <c r="G92">
+        <v>27.553333333333331</v>
+      </c>
+      <c r="H92" s="32">
+        <v>0.23755701070129112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="33">
+        <v>96</v>
+      </c>
+      <c r="F93" s="31">
+        <v>27.71</v>
+      </c>
+      <c r="H93" s="32"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="33">
+        <v>96</v>
+      </c>
+      <c r="F94" s="31">
+        <v>27.67</v>
+      </c>
+      <c r="H94" s="32"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="31"/>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="33"/>
+      <c r="F96" s="31"/>
+      <c r="H96" s="32"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="33"/>
+      <c r="F97" s="31"/>
+      <c r="H97" s="32"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G98">
+    <sortCondition ref="C1:C98"/>
+  </sortState>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC933DB-52CD-9A4B-8135-19191370B34C}">
+  <dimension ref="A1:K78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="51" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47">
+        <v>50</v>
+      </c>
+      <c r="B3" s="48">
+        <v>36.515000000000001</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="48">
+        <v>31.060000000000002</v>
+      </c>
+      <c r="E3" s="48">
+        <f>D3-B3</f>
+        <v>-5.4549999999999983</v>
+      </c>
+      <c r="F3" s="48">
+        <f>E3-$G$3</f>
+        <v>2.7744444444444465</v>
+      </c>
+      <c r="G3" s="50">
+        <f>AVERAGE(E15:E20)</f>
+        <v>-8.2294444444444448</v>
+      </c>
+      <c r="H3" s="48">
+        <f>2^-(F3)</f>
+        <v>0.14615342625478112</v>
+      </c>
+      <c r="I3" s="63">
+        <f>AVERAGE(H15:H20)</f>
+        <v>2.4421848259457986</v>
+      </c>
+      <c r="J3" s="64">
+        <f>AVERAGE(H3:H8)</f>
+        <v>6.4990737343274922</v>
+      </c>
+      <c r="K3" s="65">
+        <f>AVERAGE(H9:H14)</f>
+        <v>2.8657734264120394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47">
+        <v>51</v>
+      </c>
+      <c r="B4" s="48">
+        <v>39.08</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="48">
+        <v>25.62</v>
+      </c>
+      <c r="E4" s="48">
+        <f t="shared" ref="E4:E22" si="0">D4-B4</f>
+        <v>-13.459999999999997</v>
+      </c>
+      <c r="F4" s="48">
+        <f t="shared" ref="F4:F20" si="1">E4-$G$3</f>
+        <v>-5.2305555555555525</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H20" si="2">2^-(F4)</f>
+        <v>37.545173553802172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="47">
+        <v>52</v>
+      </c>
+      <c r="B5" s="48">
+        <v>36.11</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="48">
+        <v>33.825000000000003</v>
+      </c>
+      <c r="E5" s="48">
+        <f t="shared" si="0"/>
+        <v>-2.2849999999999966</v>
+      </c>
+      <c r="F5" s="48">
+        <f t="shared" si="1"/>
+        <v>5.9444444444444482</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="2"/>
+        <v>1.6238425406747518E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="47">
+        <v>54</v>
+      </c>
+      <c r="B6" s="48">
+        <v>36.620000000000005</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="48">
+        <v>28.055</v>
+      </c>
+      <c r="E6" s="48">
+        <f t="shared" si="0"/>
+        <v>-8.5650000000000048</v>
+      </c>
+      <c r="F6" s="48">
+        <f t="shared" si="1"/>
+        <v>-0.33555555555556005</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="2"/>
+        <v>1.2618632358082238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="47">
+        <v>55</v>
+      </c>
+      <c r="B7" s="48">
+        <v>40</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="48">
+        <v>38.255000000000003</v>
+      </c>
+      <c r="E7" s="48">
+        <f t="shared" si="0"/>
+        <v>-1.7449999999999974</v>
+      </c>
+      <c r="F7" s="48">
+        <f t="shared" si="1"/>
+        <v>6.4844444444444473</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="2"/>
+        <v>1.116831660386205E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47">
+        <v>59</v>
+      </c>
+      <c r="B8" s="48">
+        <v>29.645000000000003</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="48">
+        <v>27.59</v>
+      </c>
+      <c r="E8" s="48">
+        <f t="shared" si="0"/>
+        <v>-2.0550000000000033</v>
+      </c>
+      <c r="F8" s="48">
+        <f t="shared" si="1"/>
+        <v>6.1744444444444415</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="2"/>
+        <v>1.3845448089164271E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="52">
+        <v>71</v>
+      </c>
+      <c r="B9" s="53">
+        <v>39.120000000000005</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="53">
+        <v>27.604999999999997</v>
+      </c>
+      <c r="E9" s="53">
+        <f t="shared" si="0"/>
+        <v>-11.515000000000008</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="1"/>
+        <v>-3.2855555555555629</v>
+      </c>
+      <c r="H9" s="53">
+        <f t="shared" si="2"/>
+        <v>9.7510363328145999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="52">
+        <v>73</v>
+      </c>
+      <c r="B10" s="53">
+        <v>36.209999999999994</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="53">
+        <v>29.725000000000001</v>
+      </c>
+      <c r="E10" s="53">
+        <f t="shared" si="0"/>
+        <v>-6.4849999999999923</v>
+      </c>
+      <c r="F10" s="53">
+        <f t="shared" si="1"/>
+        <v>1.7444444444444525</v>
+      </c>
+      <c r="H10" s="53">
+        <f t="shared" si="2"/>
+        <v>0.29844884083956591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="52">
+        <v>76</v>
+      </c>
+      <c r="B11" s="53">
+        <v>38.150000000000006</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="53">
+        <v>27.689999999999998</v>
+      </c>
+      <c r="E11" s="53">
+        <f t="shared" si="0"/>
+        <v>-10.460000000000008</v>
+      </c>
+      <c r="F11" s="53">
+        <f t="shared" si="1"/>
+        <v>-2.2305555555555632</v>
+      </c>
+      <c r="H11" s="53">
+        <f t="shared" si="2"/>
+        <v>4.6931466942253071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="52">
+        <v>77</v>
+      </c>
+      <c r="B12" s="53">
+        <v>40</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="53">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E12" s="53">
+        <f t="shared" si="0"/>
+        <v>-9.1999999999999957</v>
+      </c>
+      <c r="F12" s="53">
+        <f t="shared" si="1"/>
+        <v>-0.97055555555555095</v>
+      </c>
+      <c r="H12" s="53">
+        <f t="shared" si="2"/>
+        <v>1.9595950542263543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="52">
+        <v>80</v>
+      </c>
+      <c r="B13" s="53">
+        <v>40</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="53">
+        <v>33.015000000000001</v>
+      </c>
+      <c r="E13" s="53">
+        <f t="shared" si="0"/>
+        <v>-6.9849999999999994</v>
+      </c>
+      <c r="F13" s="53">
+        <f t="shared" si="1"/>
+        <v>1.2444444444444454</v>
+      </c>
+      <c r="H13" s="53">
+        <f t="shared" si="2"/>
+        <v>0.42207039838984545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="52">
+        <v>83</v>
+      </c>
+      <c r="B14" s="53">
+        <v>40</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="53">
+        <v>35.6</v>
+      </c>
+      <c r="E14" s="53">
+        <f t="shared" si="0"/>
+        <v>-4.3999999999999986</v>
+      </c>
+      <c r="F14" s="53">
+        <f t="shared" si="1"/>
+        <v>3.8294444444444462</v>
+      </c>
+      <c r="H14" s="53">
+        <f t="shared" si="2"/>
+        <v>7.0343237976566969E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="56">
+        <v>90</v>
+      </c>
+      <c r="B15" s="57">
+        <v>37.594999999999999</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="57">
+        <v>27.41</v>
+      </c>
+      <c r="E15" s="57">
+        <f t="shared" si="0"/>
+        <v>-10.184999999999999</v>
+      </c>
+      <c r="F15" s="57">
+        <f t="shared" si="1"/>
+        <v>-1.9555555555555539</v>
+      </c>
+      <c r="H15" s="57">
+        <f t="shared" si="2"/>
+        <v>3.878652578586868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="56">
+        <v>91</v>
+      </c>
+      <c r="B16" s="57">
+        <v>38.984999999999999</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="57">
+        <v>28.490000000000002</v>
+      </c>
+      <c r="E16" s="57">
+        <f t="shared" si="0"/>
+        <v>-10.494999999999997</v>
+      </c>
+      <c r="F16" s="57">
+        <f t="shared" si="1"/>
+        <v>-2.2655555555555527</v>
+      </c>
+      <c r="H16" s="57">
+        <f t="shared" si="2"/>
+        <v>4.8083954670623399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="56">
+        <v>92</v>
+      </c>
+      <c r="B17" s="57">
+        <v>39.6</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="57">
+        <v>33.935000000000002</v>
+      </c>
+      <c r="E17" s="57">
+        <f t="shared" si="0"/>
+        <v>-5.6649999999999991</v>
+      </c>
+      <c r="F17" s="57">
+        <f t="shared" si="1"/>
+        <v>2.5644444444444456</v>
+      </c>
+      <c r="H17" s="57">
+        <f t="shared" si="2"/>
+        <v>0.16905394118617825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="56">
+        <v>94</v>
+      </c>
+      <c r="B18" s="57">
+        <v>40</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="57">
+        <v>35.405000000000001</v>
+      </c>
+      <c r="E18" s="57">
+        <f t="shared" si="0"/>
+        <v>-4.5949999999999989</v>
+      </c>
+      <c r="F18" s="57">
+        <f t="shared" si="1"/>
+        <v>3.6344444444444459</v>
+      </c>
+      <c r="H18" s="57">
+        <f t="shared" si="2"/>
+        <v>8.0523604046519176E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="56">
+        <v>95</v>
+      </c>
+      <c r="B19" s="57">
+        <v>34.545000000000002</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="57">
+        <v>26.634999999999998</v>
+      </c>
+      <c r="E19" s="57">
+        <f t="shared" si="0"/>
+        <v>-7.9100000000000037</v>
+      </c>
+      <c r="F19" s="57">
+        <f t="shared" si="1"/>
+        <v>0.31944444444444109</v>
+      </c>
+      <c r="H19" s="57">
+        <f t="shared" si="2"/>
+        <v>0.80137841439569546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="56">
+        <v>96</v>
+      </c>
+      <c r="B20" s="57">
+        <v>38.08</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="57">
+        <v>27.553333333333331</v>
+      </c>
+      <c r="E20" s="57">
+        <f t="shared" si="0"/>
+        <v>-10.526666666666667</v>
+      </c>
+      <c r="F20" s="57">
+        <f t="shared" si="1"/>
+        <v>-2.2972222222222225</v>
+      </c>
+      <c r="H20" s="57">
+        <f t="shared" si="2"/>
+        <v>4.9151049503971924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="34"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="34"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="34"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="34"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="34"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="34"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="34"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="34"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="44"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="44"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="44"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="44"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="44"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="44"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="44"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="44"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="44"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="44"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="44"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="44"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="44"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="44"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="44"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="44"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="45"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="45"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="45"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="45"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="44"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="44"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="44"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="44"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="44"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="44"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="44"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="44"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="44"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="44"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="44"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="44"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="44"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="44"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="44"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="44"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:D96" xr:uid="{5FC933DB-52CD-9A4B-8135-19191370B34C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
@@ -4312,7 +7420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E74450D-DA75-D74D-8557-D3D62C1F93E8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
@@ -4363,7 +7471,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="39" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -4407,7 +7515,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
@@ -4425,7 +7533,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="21" t="s">
         <v>133</v>
       </c>
@@ -4467,7 +7575,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="26" t="s">
         <v>134</v>
       </c>
@@ -4485,7 +7593,7 @@
       <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="39" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4529,7 +7637,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
@@ -4547,7 +7655,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="21" t="s">
         <v>133</v>
       </c>
@@ -4589,7 +7697,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="26" t="s">
         <v>134</v>
       </c>
@@ -4607,7 +7715,7 @@
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="39" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -4651,7 +7759,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
@@ -4669,7 +7777,7 @@
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="21" t="s">
         <v>133</v>
       </c>
@@ -4711,7 +7819,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="26" t="s">
         <v>134</v>
       </c>
@@ -4729,7 +7837,7 @@
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -4773,7 +7881,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +7899,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="21" t="s">
         <v>133</v>
       </c>
@@ -4833,7 +7941,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="26" t="s">
         <v>134</v>
       </c>
@@ -4851,7 +7959,7 @@
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="39" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -4895,7 +8003,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="21" t="s">
         <v>4</v>
       </c>
@@ -4913,7 +8021,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="21" t="s">
         <v>133</v>
       </c>
@@ -4955,7 +8063,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="26" t="s">
         <v>134</v>
       </c>
@@ -4973,7 +8081,7 @@
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="39" t="s">
         <v>139</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -5017,7 +8125,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="34"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="21" t="s">
         <v>4</v>
       </c>
@@ -5035,7 +8143,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="21" t="s">
         <v>133</v>
       </c>
@@ -5077,7 +8185,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="26" t="s">
         <v>134</v>
       </c>
@@ -5095,7 +8203,7 @@
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="39" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -5139,7 +8247,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="21" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +8265,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="21" t="s">
         <v>133</v>
       </c>
@@ -5199,7 +8307,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="26" t="s">
         <v>134</v>
       </c>
@@ -5217,7 +8325,7 @@
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="39" t="s">
         <v>141</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -5261,7 +8369,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="21" t="s">
         <v>4</v>
       </c>
@@ -5279,7 +8387,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="34"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="21" t="s">
         <v>133</v>
       </c>
@@ -5321,7 +8429,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="26" t="s">
         <v>134</v>
       </c>
@@ -5353,2118 +8461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D1C77-129B-D043-927C-FCCCF9546E4E}">
-  <dimension ref="A1:H97"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="37">
-        <v>50</v>
-      </c>
-      <c r="F2" s="31">
-        <v>36.17</v>
-      </c>
-      <c r="G2">
-        <v>36.515000000000001</v>
-      </c>
-      <c r="H2" s="32">
-        <v>0.48790367901871617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="37">
-        <v>50</v>
-      </c>
-      <c r="F3" s="31">
-        <v>36.86</v>
-      </c>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="37">
-        <v>51</v>
-      </c>
-      <c r="F4" s="31">
-        <v>39.08</v>
-      </c>
-      <c r="G4">
-        <v>39.08</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="37">
-        <v>51</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="37">
-        <v>52</v>
-      </c>
-      <c r="F6" s="31">
-        <v>36.01</v>
-      </c>
-      <c r="G6">
-        <v>36.11</v>
-      </c>
-      <c r="H6" s="32">
-        <v>0.14142135623731153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="37">
-        <v>52</v>
-      </c>
-      <c r="F7" s="31">
-        <v>36.21</v>
-      </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="37">
-        <v>54</v>
-      </c>
-      <c r="F8" s="31">
-        <v>36.25</v>
-      </c>
-      <c r="G8">
-        <v>36.620000000000005</v>
-      </c>
-      <c r="H8" s="32">
-        <v>0.52325901807804653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="37">
-        <v>54</v>
-      </c>
-      <c r="F9" s="31">
-        <v>36.99</v>
-      </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="37">
-        <v>55</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="37">
-        <v>55</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="37">
-        <v>59</v>
-      </c>
-      <c r="F12" s="31">
-        <v>29.53</v>
-      </c>
-      <c r="G12">
-        <v>29.645000000000003</v>
-      </c>
-      <c r="H12" s="32">
-        <v>0.16263455967290624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="37">
-        <v>59</v>
-      </c>
-      <c r="F13" s="31">
-        <v>29.76</v>
-      </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="37">
-        <v>71</v>
-      </c>
-      <c r="F14" s="31">
-        <v>39.24</v>
-      </c>
-      <c r="G14">
-        <v>39.120000000000005</v>
-      </c>
-      <c r="H14" s="32">
-        <v>0.1697056274847728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="37">
-        <v>71</v>
-      </c>
-      <c r="F15" s="31">
-        <v>39</v>
-      </c>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="37">
-        <v>73</v>
-      </c>
-      <c r="F16" s="31">
-        <v>36.01</v>
-      </c>
-      <c r="G16">
-        <v>36.209999999999994</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0.28284271247461801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="37">
-        <v>73</v>
-      </c>
-      <c r="F17" s="31">
-        <v>36.409999999999997</v>
-      </c>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="37">
-        <v>76</v>
-      </c>
-      <c r="F18" s="31">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="G18">
-        <v>38.150000000000006</v>
-      </c>
-      <c r="H18" s="32">
-        <v>0.18384776310850096</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="37">
-        <v>76</v>
-      </c>
-      <c r="F19" s="31">
-        <v>38.28</v>
-      </c>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="37">
-        <v>77</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="37">
-        <v>77</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="37">
-        <v>80</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="37">
-        <v>80</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="37">
-        <v>83</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="37">
-        <v>83</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="37">
-        <v>90</v>
-      </c>
-      <c r="F26" s="31">
-        <v>37.83</v>
-      </c>
-      <c r="G26">
-        <v>37.594999999999999</v>
-      </c>
-      <c r="H26" s="32">
-        <v>0.33234018715767655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="37">
-        <v>90</v>
-      </c>
-      <c r="F27" s="31">
-        <v>37.36</v>
-      </c>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="37">
-        <v>91</v>
-      </c>
-      <c r="F28" s="31">
-        <v>38.630000000000003</v>
-      </c>
-      <c r="G28">
-        <v>38.984999999999999</v>
-      </c>
-      <c r="H28" s="32">
-        <v>0.50204581464244935</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="37">
-        <v>91</v>
-      </c>
-      <c r="F29" s="31">
-        <v>39.340000000000003</v>
-      </c>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="37">
-        <v>92</v>
-      </c>
-      <c r="F30" s="31">
-        <v>39.6</v>
-      </c>
-      <c r="G30">
-        <v>39.6</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="37">
-        <v>92</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="37">
-        <v>94</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="37">
-        <v>94</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="37">
-        <v>95</v>
-      </c>
-      <c r="F34" s="31">
-        <v>34.64</v>
-      </c>
-      <c r="G34">
-        <v>34.545000000000002</v>
-      </c>
-      <c r="H34" s="32">
-        <v>0.13435028842544242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="37">
-        <v>95</v>
-      </c>
-      <c r="F35" s="31">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="37">
-        <v>96</v>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36">
-        <v>38.08</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="37">
-        <v>96</v>
-      </c>
-      <c r="F37" s="31">
-        <v>38.08</v>
-      </c>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="31"/>
-      <c r="H38" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="31"/>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="31"/>
-      <c r="H41" s="32"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="31"/>
-      <c r="H42" s="32"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="31"/>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="31"/>
-      <c r="H44" s="32"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="31"/>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
-      <c r="H47" s="32"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="31"/>
-      <c r="H48" s="32"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="31"/>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="31"/>
-      <c r="H50" s="32"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="31"/>
-      <c r="H51" s="32"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="31"/>
-      <c r="H52" s="32"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="31"/>
-      <c r="H53" s="32"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="31"/>
-      <c r="H54" s="32"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="31"/>
-      <c r="H55" s="32"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="31"/>
-      <c r="H56" s="32"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="31"/>
-      <c r="H57" s="32"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="36">
-        <v>50</v>
-      </c>
-      <c r="F58" s="31">
-        <v>31.32</v>
-      </c>
-      <c r="G58">
-        <v>31.060000000000002</v>
-      </c>
-      <c r="H58" s="32">
-        <v>0.36769552621700441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="36">
-        <v>50</v>
-      </c>
-      <c r="F59" s="31">
-        <v>30.8</v>
-      </c>
-      <c r="H59" s="32"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="36">
-        <v>51</v>
-      </c>
-      <c r="F60" s="31">
-        <v>25.89</v>
-      </c>
-      <c r="G60">
-        <v>25.62</v>
-      </c>
-      <c r="H60" s="32">
-        <v>0.38183766184073509</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="36">
-        <v>51</v>
-      </c>
-      <c r="F61" s="31">
-        <v>25.35</v>
-      </c>
-      <c r="H61" s="32"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="36">
-        <v>52</v>
-      </c>
-      <c r="F62" s="31">
-        <v>33.4</v>
-      </c>
-      <c r="G62">
-        <v>33.825000000000003</v>
-      </c>
-      <c r="H62" s="32">
-        <v>0.60104076400856643</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="36">
-        <v>52</v>
-      </c>
-      <c r="F63" s="31">
-        <v>34.25</v>
-      </c>
-      <c r="H63" s="32"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="36">
-        <v>54</v>
-      </c>
-      <c r="F64" s="31">
-        <v>28.06</v>
-      </c>
-      <c r="G64">
-        <v>28.055</v>
-      </c>
-      <c r="H64" s="32">
-        <v>7.0710678118640685E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="36">
-        <v>54</v>
-      </c>
-      <c r="F65" s="31">
-        <v>28.05</v>
-      </c>
-      <c r="H65" s="32"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="36">
-        <v>55</v>
-      </c>
-      <c r="F66" s="31">
-        <v>37.840000000000003</v>
-      </c>
-      <c r="G66">
-        <v>38.255000000000003</v>
-      </c>
-      <c r="H66" s="32">
-        <v>0.5868986283848332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="36">
-        <v>55</v>
-      </c>
-      <c r="F67" s="31">
-        <v>38.67</v>
-      </c>
-      <c r="H67" s="32"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="36">
-        <v>59</v>
-      </c>
-      <c r="F68" s="31">
-        <v>27.35</v>
-      </c>
-      <c r="G68">
-        <v>27.59</v>
-      </c>
-      <c r="H68" s="32">
-        <v>0.33941125496954061</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="36">
-        <v>59</v>
-      </c>
-      <c r="F69" s="31">
-        <v>27.83</v>
-      </c>
-      <c r="H69" s="32"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="36">
-        <v>71</v>
-      </c>
-      <c r="F70" s="31">
-        <v>27.49</v>
-      </c>
-      <c r="G70">
-        <v>27.604999999999997</v>
-      </c>
-      <c r="H70" s="32">
-        <v>0.16263455967290624</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="36">
-        <v>71</v>
-      </c>
-      <c r="F71" s="31">
-        <v>27.72</v>
-      </c>
-      <c r="H71" s="32"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="36">
-        <v>73</v>
-      </c>
-      <c r="F72" s="31">
-        <v>29.5</v>
-      </c>
-      <c r="G72">
-        <v>29.725000000000001</v>
-      </c>
-      <c r="H72" s="32">
-        <v>0.31819805153394587</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="36">
-        <v>73</v>
-      </c>
-      <c r="F73" s="31">
-        <v>29.95</v>
-      </c>
-      <c r="H73" s="32"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="36">
-        <v>76</v>
-      </c>
-      <c r="F74" s="31">
-        <v>27.24</v>
-      </c>
-      <c r="G74">
-        <v>27.689999999999998</v>
-      </c>
-      <c r="H74" s="32">
-        <v>0.63639610306789429</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="36">
-        <v>76</v>
-      </c>
-      <c r="F75" s="31">
-        <v>28.14</v>
-      </c>
-      <c r="H75" s="32"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="38">
-        <v>77</v>
-      </c>
-      <c r="F76" s="39">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="G76" s="40">
-        <v>30.800000000000004</v>
-      </c>
-      <c r="H76" s="41">
-        <v>5.006316010800739</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="38">
-        <v>77</v>
-      </c>
-      <c r="F77" s="39">
-        <v>27.26</v>
-      </c>
-      <c r="G77" s="40"/>
-      <c r="H77" s="41"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="38">
-        <v>80</v>
-      </c>
-      <c r="F78" s="39">
-        <v>30.84</v>
-      </c>
-      <c r="G78" s="40">
-        <v>33.015000000000001</v>
-      </c>
-      <c r="H78" s="41">
-        <v>3.0759144981614801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="38">
-        <v>80</v>
-      </c>
-      <c r="F79" s="39">
-        <v>35.19</v>
-      </c>
-      <c r="G79" s="40"/>
-      <c r="H79" s="41"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="36">
-        <v>83</v>
-      </c>
-      <c r="F80" s="31">
-        <v>35.770000000000003</v>
-      </c>
-      <c r="G80">
-        <v>35.6</v>
-      </c>
-      <c r="H80" s="32">
-        <v>0.24041630560342858</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="36">
-        <v>83</v>
-      </c>
-      <c r="F81" s="31">
-        <v>35.43</v>
-      </c>
-      <c r="H81" s="32"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="36">
-        <v>90</v>
-      </c>
-      <c r="F82" s="31">
-        <v>27.41</v>
-      </c>
-      <c r="G82">
-        <v>27.41</v>
-      </c>
-      <c r="H82" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="36">
-        <v>90</v>
-      </c>
-      <c r="F83" s="31"/>
-      <c r="H83" s="32"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A84" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="36">
-        <v>91</v>
-      </c>
-      <c r="F84" s="31">
-        <v>28.66</v>
-      </c>
-      <c r="G84">
-        <v>28.490000000000002</v>
-      </c>
-      <c r="H84" s="32">
-        <v>0.24041630560342606</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A85" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="36">
-        <v>91</v>
-      </c>
-      <c r="F85" s="31">
-        <v>28.32</v>
-      </c>
-      <c r="H85" s="32"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A86" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="36">
-        <v>92</v>
-      </c>
-      <c r="F86" s="31">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="G86">
-        <v>33.935000000000002</v>
-      </c>
-      <c r="H86" s="32">
-        <v>1.0253048327204908</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A87" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="36">
-        <v>92</v>
-      </c>
-      <c r="F87" s="31">
-        <v>33.21</v>
-      </c>
-      <c r="H87" s="32"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="36">
-        <v>94</v>
-      </c>
-      <c r="F88" s="31">
-        <v>35.51</v>
-      </c>
-      <c r="G88">
-        <v>35.405000000000001</v>
-      </c>
-      <c r="H88" s="32">
-        <v>0.14849242404917559</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="36">
-        <v>94</v>
-      </c>
-      <c r="F89" s="31">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="H89" s="32"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A90" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="36">
-        <v>95</v>
-      </c>
-      <c r="F90" s="31">
-        <v>26.65</v>
-      </c>
-      <c r="G90">
-        <v>26.634999999999998</v>
-      </c>
-      <c r="H90" s="32">
-        <v>2.1213203435594716E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A91" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="36">
-        <v>95</v>
-      </c>
-      <c r="F91" s="31">
-        <v>26.62</v>
-      </c>
-      <c r="H91" s="32"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A92" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="36">
-        <v>96</v>
-      </c>
-      <c r="F92" s="31">
-        <v>27.28</v>
-      </c>
-      <c r="G92">
-        <v>27.553333333333331</v>
-      </c>
-      <c r="H92" s="32">
-        <v>0.23755701070129112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A93" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="36">
-        <v>96</v>
-      </c>
-      <c r="F93" s="31">
-        <v>27.71</v>
-      </c>
-      <c r="H93" s="32"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A94" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="36">
-        <v>96</v>
-      </c>
-      <c r="F94" s="31">
-        <v>27.67</v>
-      </c>
-      <c r="H94" s="32"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A95" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B95" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F95" s="31"/>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A96" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B96" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="31"/>
-      <c r="H96" s="32"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A97" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="31"/>
-      <c r="H97" s="32"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G98">
-    <sortCondition ref="C1:C98"/>
-  </sortState>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008B86C8-613B-1148-98BE-5D8BD0E30B4B}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -7515,7 +8512,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="39" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7559,7 +8556,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7577,7 +8574,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="26" t="s">
         <v>142</v>
       </c>
@@ -7613,7 +8610,7 @@
       <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -7657,7 +8654,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
@@ -7675,7 +8672,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="26" t="s">
         <v>142</v>
       </c>
@@ -7711,7 +8708,7 @@
       <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -7755,7 +8752,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
@@ -7773,7 +8770,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="26" t="s">
         <v>142</v>
       </c>
@@ -7807,7 +8804,7 @@
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="39" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -7851,7 +8848,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
@@ -7869,7 +8866,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="26" t="s">
         <v>142</v>
       </c>
@@ -7903,7 +8900,7 @@
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -7947,7 +8944,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
@@ -7965,7 +8962,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="26" t="s">
         <v>142</v>
       </c>
@@ -7997,7 +8994,7 @@
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="39" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -8041,7 +9038,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="21" t="s">
         <v>4</v>
       </c>
@@ -8059,7 +9056,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="26" t="s">
         <v>142</v>
       </c>
@@ -8089,7 +9086,7 @@
       <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="39" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -8133,7 +9130,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="21" t="s">
         <v>4</v>
       </c>
@@ -8151,7 +9148,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="26" t="s">
         <v>142</v>
       </c>
@@ -8181,7 +9178,7 @@
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="39" t="s">
         <v>141</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -8225,7 +9222,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="21" t="s">
         <v>4</v>
       </c>
@@ -8243,7 +9240,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="26" t="s">
         <v>142</v>
       </c>
@@ -8287,7 +9284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>

--- a/data/EXP 2/exp2_run1_PCR.xlsx
+++ b/data/EXP 2/exp2_run1_PCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B226F3A-9F3D-6646-B878-94D8EA2FA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91EF8FC-DE2B-514C-832D-95FC191CC38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="740" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="160">
   <si>
     <t>Well</t>
   </si>
@@ -514,64 +514,13 @@
     <t>Control</t>
   </si>
   <si>
-    <t>C-90</t>
-  </si>
-  <si>
-    <t>C-91</t>
-  </si>
-  <si>
-    <t>C-92</t>
-  </si>
-  <si>
-    <t>C-94</t>
-  </si>
-  <si>
-    <t>C-95</t>
-  </si>
-  <si>
-    <t>C-96</t>
-  </si>
-  <si>
-    <t>B-71</t>
-  </si>
-  <si>
-    <t>B-73</t>
-  </si>
-  <si>
-    <t>B-76</t>
-  </si>
-  <si>
-    <t>B-77</t>
-  </si>
-  <si>
-    <t>B-80</t>
-  </si>
-  <si>
-    <t>B-83</t>
-  </si>
-  <si>
-    <t>A-50</t>
-  </si>
-  <si>
-    <t>A-51</t>
-  </si>
-  <si>
-    <t>A-52</t>
-  </si>
-  <si>
-    <t>A-54</t>
-  </si>
-  <si>
-    <t>A-55</t>
-  </si>
-  <si>
-    <t>A-59</t>
-  </si>
-  <si>
     <t>A Treatment</t>
   </si>
   <si>
     <t>B Treatment</t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
 </sst>
 </file>
@@ -1020,18 +969,6 @@
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1099,6 +1036,18 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3529,7 +3478,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3543,529 +3492,529 @@
     <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="42" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:11" s="39" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="51" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="J2" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="48" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44">
         <v>50</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="45">
         <v>36.515000000000001</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="48">
+      <c r="C3" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="45">
         <v>31.060000000000002</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="45">
         <f>D3-B3</f>
         <v>-5.4549999999999983</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="45">
         <f>E3-$G$3</f>
         <v>2.7744444444444465</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="47">
         <f>AVERAGE(E15:E20)</f>
         <v>-8.2294444444444448</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="45">
         <f>2^-(F3)</f>
         <v>0.14615342625478112</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="60">
         <f>AVERAGE(H15:H20)</f>
         <v>2.4421848259457986</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="61">
         <f>AVERAGE(H3:H8)</f>
         <v>6.4990737343274922</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="62">
         <f>AVERAGE(H9:H14)</f>
         <v>2.8657734264120394</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47">
+    <row r="4" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44">
         <v>51</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="45">
         <v>39.08</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="48">
+      <c r="C4" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="45">
         <v>25.62</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="45">
         <f t="shared" ref="E4:E22" si="0">D4-B4</f>
         <v>-13.459999999999997</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="45">
         <f t="shared" ref="F4:F20" si="1">E4-$G$3</f>
         <v>-5.2305555555555525</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="45">
         <f t="shared" ref="H4:H20" si="2">2^-(F4)</f>
         <v>37.545173553802172</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47">
+    <row r="5" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="44">
         <v>52</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <v>36.11</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="48">
+      <c r="C5" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="45">
         <v>33.825000000000003</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="45">
         <f t="shared" si="0"/>
         <v>-2.2849999999999966</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="45">
         <f t="shared" si="1"/>
         <v>5.9444444444444482</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="45">
         <f t="shared" si="2"/>
         <v>1.6238425406747518E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47">
+    <row r="6" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44">
         <v>54</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="45">
         <v>36.620000000000005</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="48">
+      <c r="C6" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="45">
         <v>28.055</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="45">
         <f t="shared" si="0"/>
         <v>-8.5650000000000048</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="45">
         <f t="shared" si="1"/>
         <v>-0.33555555555556005</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="45">
         <f t="shared" si="2"/>
         <v>1.2618632358082238</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47">
+    <row r="7" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44">
         <v>55</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="45">
         <v>40</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="48">
+      <c r="C7" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="45">
         <v>38.255000000000003</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="45">
         <f t="shared" si="0"/>
         <v>-1.7449999999999974</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="45">
         <f t="shared" si="1"/>
         <v>6.4844444444444473</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="45">
         <f t="shared" si="2"/>
         <v>1.116831660386205E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47">
+    <row r="8" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="44">
         <v>59</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="45">
         <v>29.645000000000003</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="48">
+      <c r="C8" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="45">
         <v>27.59</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="45">
         <f t="shared" si="0"/>
         <v>-2.0550000000000033</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="45">
         <f t="shared" si="1"/>
         <v>6.1744444444444415</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="45">
         <f t="shared" si="2"/>
         <v>1.3845448089164271E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+    <row r="9" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="49">
         <v>71</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="50">
         <v>39.120000000000005</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="53">
+      <c r="C9" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="50">
         <v>27.604999999999997</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="50">
         <f t="shared" si="0"/>
         <v>-11.515000000000008</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="50">
         <f t="shared" si="1"/>
         <v>-3.2855555555555629</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="50">
         <f t="shared" si="2"/>
         <v>9.7510363328145999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52">
+    <row r="10" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="49">
         <v>73</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="50">
         <v>36.209999999999994</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="53">
+      <c r="C10" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="50">
         <v>29.725000000000001</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="50">
         <f t="shared" si="0"/>
         <v>-6.4849999999999923</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="50">
         <f t="shared" si="1"/>
         <v>1.7444444444444525</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="50">
         <f t="shared" si="2"/>
         <v>0.29844884083956591</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52">
+    <row r="11" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="49">
         <v>76</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="50">
         <v>38.150000000000006</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="53">
+      <c r="C11" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="50">
         <v>27.689999999999998</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="50">
         <f t="shared" si="0"/>
         <v>-10.460000000000008</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="50">
         <f t="shared" si="1"/>
         <v>-2.2305555555555632</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="50">
         <f t="shared" si="2"/>
         <v>4.6931466942253071</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="52">
+    <row r="12" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49">
         <v>77</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="50">
         <v>40</v>
       </c>
-      <c r="C12" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="53">
+      <c r="C12" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="50">
         <v>30.800000000000004</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="50">
         <f t="shared" si="0"/>
         <v>-9.1999999999999957</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="50">
         <f t="shared" si="1"/>
         <v>-0.97055555555555095</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="50">
         <f t="shared" si="2"/>
         <v>1.9595950542263543</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52">
+    <row r="13" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="49">
         <v>80</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="50">
         <v>40</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="53">
+      <c r="C13" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="50">
         <v>33.015000000000001</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="50">
         <f t="shared" si="0"/>
         <v>-6.9849999999999994</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="50">
         <f t="shared" si="1"/>
         <v>1.2444444444444454</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="50">
         <f t="shared" si="2"/>
         <v>0.42207039838984545</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="52">
+    <row r="14" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="49">
         <v>83</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="50">
         <v>40</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="53">
+      <c r="C14" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="50">
         <v>35.6</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="50">
         <f t="shared" si="0"/>
         <v>-4.3999999999999986</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="50">
         <f t="shared" si="1"/>
         <v>3.8294444444444462</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="50">
         <f t="shared" si="2"/>
         <v>7.0343237976566969E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56">
+    <row r="15" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="53">
         <v>90</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="54">
         <v>37.594999999999999</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="57">
+      <c r="C15" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="54">
         <v>27.41</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="54">
         <f t="shared" si="0"/>
         <v>-10.184999999999999</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="54">
         <f t="shared" si="1"/>
         <v>-1.9555555555555539</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="54">
         <f t="shared" si="2"/>
         <v>3.878652578586868</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56">
+    <row r="16" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="53">
         <v>91</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="54">
         <v>38.984999999999999</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="57">
+      <c r="C16" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="54">
         <v>28.490000000000002</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="54">
         <f t="shared" si="0"/>
         <v>-10.494999999999997</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="54">
         <f t="shared" si="1"/>
         <v>-2.2655555555555527</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="54">
         <f t="shared" si="2"/>
         <v>4.8083954670623399</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56">
+    <row r="17" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="53">
         <v>92</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="54">
         <v>39.6</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="57">
+      <c r="C17" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="54">
         <v>33.935000000000002</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <f t="shared" si="0"/>
         <v>-5.6649999999999991</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="54">
         <f t="shared" si="1"/>
         <v>2.5644444444444456</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <f t="shared" si="2"/>
         <v>0.16905394118617825</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="56">
+    <row r="18" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="53">
         <v>94</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="54">
         <v>40</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="57">
+      <c r="C18" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="54">
         <v>35.405000000000001</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="54">
         <f t="shared" si="0"/>
         <v>-4.5949999999999989</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="54">
         <f t="shared" si="1"/>
         <v>3.6344444444444459</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="54">
         <f t="shared" si="2"/>
         <v>8.0523604046519176E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56">
+    <row r="19" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="53">
         <v>95</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="54">
         <v>34.545000000000002</v>
       </c>
-      <c r="C19" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="57">
+      <c r="C19" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="54">
         <v>26.634999999999998</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="54">
         <f t="shared" si="0"/>
         <v>-7.9100000000000037</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="54">
         <f t="shared" si="1"/>
         <v>0.31944444444444109</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="54">
         <f t="shared" si="2"/>
         <v>0.80137841439569546</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56">
+    <row r="20" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="53">
         <v>96</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="54">
         <v>38.08</v>
       </c>
-      <c r="C20" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="57">
+      <c r="C20" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="54">
         <v>27.553333333333331</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="54">
         <f t="shared" si="0"/>
         <v>-10.526666666666667</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="54">
         <f t="shared" si="1"/>
         <v>-2.2972222222222225</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="54">
         <f t="shared" si="2"/>
         <v>4.9151049503971924</v>
       </c>
@@ -4077,7 +4026,7 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="43" t="s">
         <v>147</v>
       </c>
       <c r="D21">
@@ -4095,7 +4044,7 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>147</v>
       </c>
       <c r="D22">
@@ -4161,118 +4110,118 @@
       <c r="A40" s="34"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="44"/>
+      <c r="A41" s="41"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
+      <c r="A42" s="41"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
+      <c r="A43" s="41"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
+      <c r="A44" s="41"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="44"/>
+      <c r="A45" s="41"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="44"/>
+      <c r="A46" s="41"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44"/>
+      <c r="A47" s="41"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
+      <c r="A48" s="41"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44"/>
+      <c r="A49" s="41"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
+      <c r="A50" s="41"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
+      <c r="A51" s="41"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="44"/>
+      <c r="A52" s="41"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="44"/>
+      <c r="A53" s="41"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
+      <c r="A54" s="41"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="44"/>
+      <c r="A55" s="41"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
+      <c r="A56" s="41"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="44"/>
+      <c r="A57" s="41"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
+      <c r="A58" s="41"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="45"/>
+      <c r="A59" s="42"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="45"/>
+      <c r="A60" s="42"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="45"/>
+      <c r="A61" s="42"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="45"/>
+      <c r="A62" s="42"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="44"/>
+      <c r="A63" s="41"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
+      <c r="A64" s="41"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="44"/>
+      <c r="A65" s="41"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
+      <c r="A66" s="41"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="44"/>
+      <c r="A67" s="41"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
+      <c r="A68" s="41"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
+      <c r="A69" s="41"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="44"/>
+      <c r="A70" s="41"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="44"/>
+      <c r="A71" s="41"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
+      <c r="A72" s="41"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
+      <c r="A73" s="41"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
+      <c r="A74" s="41"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
+      <c r="A75" s="41"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
+      <c r="A76" s="41"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
+      <c r="A77" s="41"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="44"/>
+      <c r="A78" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D96" xr:uid="{5FC933DB-52CD-9A4B-8135-19191370B34C}"/>
@@ -7471,7 +7420,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="63" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7515,7 +7464,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7533,7 +7482,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="21" t="s">
         <v>133</v>
       </c>
@@ -7575,7 +7524,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="26" t="s">
         <v>134</v>
       </c>
@@ -7593,7 +7542,7 @@
       <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="63" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -7637,7 +7586,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
@@ -7655,7 +7604,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="21" t="s">
         <v>133</v>
       </c>
@@ -7697,7 +7646,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="26" t="s">
         <v>134</v>
       </c>
@@ -7715,7 +7664,7 @@
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="63" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -7759,7 +7708,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
@@ -7777,7 +7726,7 @@
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="21" t="s">
         <v>133</v>
       </c>
@@ -7819,7 +7768,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="26" t="s">
         <v>134</v>
       </c>
@@ -7837,7 +7786,7 @@
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="63" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -7881,7 +7830,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7848,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="21" t="s">
         <v>133</v>
       </c>
@@ -7941,7 +7890,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="26" t="s">
         <v>134</v>
       </c>
@@ -7959,7 +7908,7 @@
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="63" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -8003,7 +7952,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="21" t="s">
         <v>4</v>
       </c>
@@ -8021,7 +7970,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="21" t="s">
         <v>133</v>
       </c>
@@ -8063,7 +8012,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="26" t="s">
         <v>134</v>
       </c>
@@ -8081,7 +8030,7 @@
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="63" t="s">
         <v>139</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -8125,7 +8074,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="21" t="s">
         <v>4</v>
       </c>
@@ -8143,7 +8092,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="21" t="s">
         <v>133</v>
       </c>
@@ -8185,7 +8134,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="26" t="s">
         <v>134</v>
       </c>
@@ -8203,7 +8152,7 @@
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="63" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -8247,7 +8196,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="21" t="s">
         <v>4</v>
       </c>
@@ -8265,7 +8214,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="21" t="s">
         <v>133</v>
       </c>
@@ -8307,7 +8256,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="26" t="s">
         <v>134</v>
       </c>
@@ -8325,7 +8274,7 @@
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="63" t="s">
         <v>141</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -8369,7 +8318,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="21" t="s">
         <v>4</v>
       </c>
@@ -8387,7 +8336,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="21" t="s">
         <v>133</v>
       </c>
@@ -8429,7 +8378,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="26" t="s">
         <v>134</v>
       </c>
@@ -8512,7 +8461,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="63" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -8556,7 +8505,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
@@ -8574,7 +8523,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="26" t="s">
         <v>142</v>
       </c>
@@ -8610,7 +8559,7 @@
       <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="63" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -8654,7 +8603,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
@@ -8672,7 +8621,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="26" t="s">
         <v>142</v>
       </c>
@@ -8708,7 +8657,7 @@
       <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="63" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -8752,7 +8701,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
@@ -8770,7 +8719,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="26" t="s">
         <v>142</v>
       </c>
@@ -8804,7 +8753,7 @@
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="63" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -8848,7 +8797,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
@@ -8866,7 +8815,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="26" t="s">
         <v>142</v>
       </c>
@@ -8900,7 +8849,7 @@
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="63" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -8944,7 +8893,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
@@ -8962,7 +8911,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="26" t="s">
         <v>142</v>
       </c>
@@ -8994,7 +8943,7 @@
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="63" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -9038,7 +8987,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="21" t="s">
         <v>4</v>
       </c>
@@ -9056,7 +9005,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="26" t="s">
         <v>142</v>
       </c>
@@ -9086,7 +9035,7 @@
       <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="63" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -9130,7 +9079,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="21" t="s">
         <v>4</v>
       </c>
@@ -9148,7 +9097,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="41"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="26" t="s">
         <v>142</v>
       </c>
@@ -9178,7 +9127,7 @@
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="63" t="s">
         <v>141</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -9222,7 +9171,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="21" t="s">
         <v>4</v>
       </c>
@@ -9240,7 +9189,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="26" t="s">
         <v>142</v>
       </c>

--- a/data/EXP 2/exp2_run1_PCR.xlsx
+++ b/data/EXP 2/exp2_run1_PCR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91EF8FC-DE2B-514C-832D-95FC191CC38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97D7E7-B595-F84C-A6C0-27F98CED537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="740" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32100" yWindow="-1020" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cq results" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cq results'!$E$1:$E$97</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cq summary'!$D$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="159">
   <si>
     <t>Well</t>
   </si>
@@ -490,15 +489,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>Housekeeping Gene (GABB45)</t>
-  </si>
-  <si>
-    <t>Gene of Interest (HSC70)</t>
-  </si>
-  <si>
-    <t>average Cq</t>
-  </si>
-  <si>
     <t>Delta Cq</t>
   </si>
   <si>
@@ -521,6 +511,12 @@
   </si>
   <si>
     <t>Treatment</t>
+  </si>
+  <si>
+    <t>average Cq (GABB45)</t>
+  </si>
+  <si>
+    <t>average Cq (HSP70)</t>
   </si>
 </sst>
 </file>
@@ -3475,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC933DB-52CD-9A4B-8135-19191370B34C}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3492,302 +3488,320 @@
     <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="39" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="I1" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="J1" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="K1" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="48" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="48" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44">
+        <v>50</v>
+      </c>
+      <c r="B2" s="45">
+        <v>36.515000000000001</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="45">
+        <v>31.060000000000002</v>
+      </c>
+      <c r="E2" s="45">
+        <f>D2-B2</f>
+        <v>-5.4549999999999983</v>
+      </c>
+      <c r="F2" s="45">
+        <f>E2-$G$2</f>
+        <v>2.7744444444444465</v>
+      </c>
+      <c r="G2" s="47">
+        <f>AVERAGE(E14:E19)</f>
+        <v>-8.2294444444444448</v>
+      </c>
+      <c r="H2" s="45">
+        <f>2^-(F2)</f>
+        <v>0.14615342625478112</v>
+      </c>
+      <c r="I2" s="60">
+        <f>AVERAGE(H14:H19)</f>
+        <v>2.4421848259457986</v>
+      </c>
+      <c r="J2" s="61">
+        <f>AVERAGE(H2:H7)</f>
+        <v>6.4990737343274922</v>
+      </c>
+      <c r="K2" s="62">
+        <f>AVERAGE(H8:H13)</f>
+        <v>2.8657734264120394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="44">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="45">
-        <v>36.515000000000001</v>
+        <v>39.08</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>132</v>
       </c>
       <c r="D3" s="45">
-        <v>31.060000000000002</v>
+        <v>25.62</v>
       </c>
       <c r="E3" s="45">
-        <f>D3-B3</f>
-        <v>-5.4549999999999983</v>
+        <f t="shared" ref="E3:E21" si="0">D3-B3</f>
+        <v>-13.459999999999997</v>
       </c>
       <c r="F3" s="45">
-        <f>E3-$G$3</f>
-        <v>2.7744444444444465</v>
-      </c>
-      <c r="G3" s="47">
-        <f>AVERAGE(E15:E20)</f>
-        <v>-8.2294444444444448</v>
+        <f t="shared" ref="F3:F19" si="1">E3-$G$2</f>
+        <v>-5.2305555555555525</v>
       </c>
       <c r="H3" s="45">
-        <f>2^-(F3)</f>
-        <v>0.14615342625478112</v>
-      </c>
-      <c r="I3" s="60">
-        <f>AVERAGE(H15:H20)</f>
-        <v>2.4421848259457986</v>
-      </c>
-      <c r="J3" s="61">
-        <f>AVERAGE(H3:H8)</f>
-        <v>6.4990737343274922</v>
-      </c>
-      <c r="K3" s="62">
-        <f>AVERAGE(H9:H14)</f>
-        <v>2.8657734264120394</v>
+        <f t="shared" ref="H3:H19" si="2">2^-(F3)</f>
+        <v>37.545173553802172</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="45">
-        <v>39.08</v>
+        <v>36.11</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="45">
-        <v>25.62</v>
+        <v>33.825000000000003</v>
       </c>
       <c r="E4" s="45">
-        <f t="shared" ref="E4:E22" si="0">D4-B4</f>
-        <v>-13.459999999999997</v>
+        <f t="shared" si="0"/>
+        <v>-2.2849999999999966</v>
       </c>
       <c r="F4" s="45">
-        <f t="shared" ref="F4:F20" si="1">E4-$G$3</f>
-        <v>-5.2305555555555525</v>
+        <f t="shared" si="1"/>
+        <v>5.9444444444444482</v>
       </c>
       <c r="H4" s="45">
-        <f t="shared" ref="H4:H20" si="2">2^-(F4)</f>
-        <v>37.545173553802172</v>
+        <f t="shared" si="2"/>
+        <v>1.6238425406747518E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="44">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" s="45">
-        <v>36.11</v>
+        <v>36.620000000000005</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>132</v>
       </c>
       <c r="D5" s="45">
-        <v>33.825000000000003</v>
+        <v>28.055</v>
       </c>
       <c r="E5" s="45">
         <f t="shared" si="0"/>
-        <v>-2.2849999999999966</v>
+        <v>-8.5650000000000048</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="1"/>
-        <v>5.9444444444444482</v>
+        <v>-0.33555555555556005</v>
       </c>
       <c r="H5" s="45">
         <f t="shared" si="2"/>
-        <v>1.6238425406747518E-2</v>
+        <v>1.2618632358082238</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="44">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="45">
-        <v>36.620000000000005</v>
+        <v>40</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="45">
-        <v>28.055</v>
+        <v>38.255000000000003</v>
       </c>
       <c r="E6" s="45">
         <f t="shared" si="0"/>
-        <v>-8.5650000000000048</v>
+        <v>-1.7449999999999974</v>
       </c>
       <c r="F6" s="45">
         <f t="shared" si="1"/>
-        <v>-0.33555555555556005</v>
+        <v>6.4844444444444473</v>
       </c>
       <c r="H6" s="45">
         <f t="shared" si="2"/>
-        <v>1.2618632358082238</v>
+        <v>1.116831660386205E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="44">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7" s="45">
-        <v>40</v>
+        <v>29.645000000000003</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>132</v>
       </c>
       <c r="D7" s="45">
-        <v>38.255000000000003</v>
+        <v>27.59</v>
       </c>
       <c r="E7" s="45">
         <f t="shared" si="0"/>
-        <v>-1.7449999999999974</v>
+        <v>-2.0550000000000033</v>
       </c>
       <c r="F7" s="45">
         <f t="shared" si="1"/>
-        <v>6.4844444444444473</v>
+        <v>6.1744444444444415</v>
       </c>
       <c r="H7" s="45">
         <f t="shared" si="2"/>
-        <v>1.116831660386205E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44">
-        <v>59</v>
-      </c>
-      <c r="B8" s="45">
-        <v>29.645000000000003</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="45">
-        <v>27.59</v>
-      </c>
-      <c r="E8" s="45">
+        <v>1.3845448089164271E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="49">
+        <v>71</v>
+      </c>
+      <c r="B8" s="50">
+        <v>39.120000000000005</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="50">
+        <v>27.604999999999997</v>
+      </c>
+      <c r="E8" s="50">
         <f t="shared" si="0"/>
-        <v>-2.0550000000000033</v>
-      </c>
-      <c r="F8" s="45">
+        <v>-11.515000000000008</v>
+      </c>
+      <c r="F8" s="50">
         <f t="shared" si="1"/>
-        <v>6.1744444444444415</v>
-      </c>
-      <c r="H8" s="45">
+        <v>-3.2855555555555629</v>
+      </c>
+      <c r="H8" s="50">
         <f t="shared" si="2"/>
-        <v>1.3845448089164271E-2</v>
+        <v>9.7510363328145999</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="50">
-        <v>39.120000000000005</v>
+        <v>36.209999999999994</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D9" s="50">
-        <v>27.604999999999997</v>
+        <v>29.725000000000001</v>
       </c>
       <c r="E9" s="50">
         <f t="shared" si="0"/>
-        <v>-11.515000000000008</v>
+        <v>-6.4849999999999923</v>
       </c>
       <c r="F9" s="50">
         <f t="shared" si="1"/>
-        <v>-3.2855555555555629</v>
+        <v>1.7444444444444525</v>
       </c>
       <c r="H9" s="50">
         <f t="shared" si="2"/>
-        <v>9.7510363328145999</v>
+        <v>0.29844884083956591</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="50">
-        <v>36.209999999999994</v>
+        <v>38.150000000000006</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="50">
-        <v>29.725000000000001</v>
+        <v>27.689999999999998</v>
       </c>
       <c r="E10" s="50">
         <f t="shared" si="0"/>
-        <v>-6.4849999999999923</v>
+        <v>-10.460000000000008</v>
       </c>
       <c r="F10" s="50">
         <f t="shared" si="1"/>
-        <v>1.7444444444444525</v>
+        <v>-2.2305555555555632</v>
       </c>
       <c r="H10" s="50">
         <f t="shared" si="2"/>
-        <v>0.29844884083956591</v>
+        <v>4.6931466942253071</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="50">
-        <v>38.150000000000006</v>
+        <v>40</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D11" s="50">
-        <v>27.689999999999998</v>
+        <v>30.800000000000004</v>
       </c>
       <c r="E11" s="50">
         <f t="shared" si="0"/>
-        <v>-10.460000000000008</v>
+        <v>-9.1999999999999957</v>
       </c>
       <c r="F11" s="50">
         <f t="shared" si="1"/>
-        <v>-2.2305555555555632</v>
+        <v>-0.97055555555555095</v>
       </c>
       <c r="H11" s="50">
         <f t="shared" si="2"/>
-        <v>4.6931466942253071</v>
+        <v>1.9595950542263543</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="50">
         <v>40</v>
@@ -3796,24 +3810,24 @@
         <v>135</v>
       </c>
       <c r="D12" s="50">
-        <v>30.800000000000004</v>
+        <v>33.015000000000001</v>
       </c>
       <c r="E12" s="50">
         <f t="shared" si="0"/>
-        <v>-9.1999999999999957</v>
+        <v>-6.9849999999999994</v>
       </c>
       <c r="F12" s="50">
         <f t="shared" si="1"/>
-        <v>-0.97055555555555095</v>
+        <v>1.2444444444444454</v>
       </c>
       <c r="H12" s="50">
         <f t="shared" si="2"/>
-        <v>1.9595950542263543</v>
+        <v>0.42207039838984545</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="50">
         <v>40</v>
@@ -3822,201 +3836,193 @@
         <v>135</v>
       </c>
       <c r="D13" s="50">
-        <v>33.015000000000001</v>
+        <v>35.6</v>
       </c>
       <c r="E13" s="50">
         <f t="shared" si="0"/>
-        <v>-6.9849999999999994</v>
+        <v>-4.3999999999999986</v>
       </c>
       <c r="F13" s="50">
         <f t="shared" si="1"/>
-        <v>1.2444444444444454</v>
+        <v>3.8294444444444462</v>
       </c>
       <c r="H13" s="50">
         <f t="shared" si="2"/>
-        <v>0.42207039838984545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49">
-        <v>83</v>
-      </c>
-      <c r="B14" s="50">
-        <v>40</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="50">
-        <v>35.6</v>
-      </c>
-      <c r="E14" s="50">
+        <v>7.0343237976566969E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="53">
+        <v>90</v>
+      </c>
+      <c r="B14" s="54">
+        <v>37.594999999999999</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="54">
+        <v>27.41</v>
+      </c>
+      <c r="E14" s="54">
         <f t="shared" si="0"/>
-        <v>-4.3999999999999986</v>
-      </c>
-      <c r="F14" s="50">
+        <v>-10.184999999999999</v>
+      </c>
+      <c r="F14" s="54">
         <f t="shared" si="1"/>
-        <v>3.8294444444444462</v>
-      </c>
-      <c r="H14" s="50">
+        <v>-1.9555555555555539</v>
+      </c>
+      <c r="H14" s="54">
         <f t="shared" si="2"/>
-        <v>7.0343237976566969E-2</v>
+        <v>3.878652578586868</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="53">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="54">
-        <v>37.594999999999999</v>
+        <v>38.984999999999999</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>136</v>
       </c>
       <c r="D15" s="54">
-        <v>27.41</v>
+        <v>28.490000000000002</v>
       </c>
       <c r="E15" s="54">
         <f t="shared" si="0"/>
-        <v>-10.184999999999999</v>
+        <v>-10.494999999999997</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" si="1"/>
-        <v>-1.9555555555555539</v>
+        <v>-2.2655555555555527</v>
       </c>
       <c r="H15" s="54">
         <f t="shared" si="2"/>
-        <v>3.878652578586868</v>
+        <v>4.8083954670623399</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="53">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="54">
-        <v>38.984999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="C16" s="55" t="s">
         <v>136</v>
       </c>
       <c r="D16" s="54">
-        <v>28.490000000000002</v>
+        <v>33.935000000000002</v>
       </c>
       <c r="E16" s="54">
         <f t="shared" si="0"/>
-        <v>-10.494999999999997</v>
+        <v>-5.6649999999999991</v>
       </c>
       <c r="F16" s="54">
         <f t="shared" si="1"/>
-        <v>-2.2655555555555527</v>
+        <v>2.5644444444444456</v>
       </c>
       <c r="H16" s="54">
         <f t="shared" si="2"/>
-        <v>4.8083954670623399</v>
+        <v>0.16905394118617825</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" s="54">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>136</v>
       </c>
       <c r="D17" s="54">
-        <v>33.935000000000002</v>
+        <v>35.405000000000001</v>
       </c>
       <c r="E17" s="54">
         <f t="shared" si="0"/>
-        <v>-5.6649999999999991</v>
+        <v>-4.5949999999999989</v>
       </c>
       <c r="F17" s="54">
         <f t="shared" si="1"/>
-        <v>2.5644444444444456</v>
+        <v>3.6344444444444459</v>
       </c>
       <c r="H17" s="54">
         <f t="shared" si="2"/>
-        <v>0.16905394118617825</v>
+        <v>8.0523604046519176E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="53">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="54">
-        <v>40</v>
+        <v>34.545000000000002</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>136</v>
       </c>
       <c r="D18" s="54">
-        <v>35.405000000000001</v>
+        <v>26.634999999999998</v>
       </c>
       <c r="E18" s="54">
         <f t="shared" si="0"/>
-        <v>-4.5949999999999989</v>
+        <v>-7.9100000000000037</v>
       </c>
       <c r="F18" s="54">
         <f t="shared" si="1"/>
-        <v>3.6344444444444459</v>
+        <v>0.31944444444444109</v>
       </c>
       <c r="H18" s="54">
         <f t="shared" si="2"/>
-        <v>8.0523604046519176E-2</v>
+        <v>0.80137841439569546</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="53">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B19" s="54">
-        <v>34.545000000000002</v>
+        <v>38.08</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="54">
-        <v>26.634999999999998</v>
+        <v>27.553333333333331</v>
       </c>
       <c r="E19" s="54">
         <f t="shared" si="0"/>
-        <v>-7.9100000000000037</v>
+        <v>-10.526666666666667</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" si="1"/>
-        <v>0.31944444444444109</v>
+        <v>-2.2972222222222225</v>
       </c>
       <c r="H19" s="54">
         <f t="shared" si="2"/>
-        <v>0.80137841439569546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53">
-        <v>96</v>
-      </c>
-      <c r="B20" s="54">
-        <v>38.08</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="54">
-        <v>27.553333333333331</v>
-      </c>
-      <c r="E20" s="54">
+        <v>4.9151049503971924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>-10.526666666666667</v>
-      </c>
-      <c r="F20" s="54">
-        <f t="shared" si="1"/>
-        <v>-2.2972222222222225</v>
-      </c>
-      <c r="H20" s="54">
-        <f t="shared" si="2"/>
-        <v>4.9151049503971924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -4026,7 +4032,7 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="41" t="s">
         <v>147</v>
       </c>
       <c r="D21">
@@ -4038,22 +4044,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
@@ -4068,16 +4059,16 @@
       <c r="A26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="30"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
+      <c r="A28" s="34"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="34"/>
+      <c r="A29" s="30"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
+      <c r="A30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
@@ -4107,7 +4098,7 @@
       <c r="A39" s="34"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="34"/>
+      <c r="A40" s="41"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="41"/>
@@ -4161,7 +4152,7 @@
       <c r="A57" s="41"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="41"/>
+      <c r="A58" s="42"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="42"/>
@@ -4173,7 +4164,7 @@
       <c r="A61" s="42"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="42"/>
+      <c r="A62" s="41"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="41"/>
@@ -4220,11 +4211,7 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="41"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="41"/>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D96" xr:uid="{5FC933DB-52CD-9A4B-8135-19191370B34C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/EXP 2/exp2_run1_PCR.xlsx
+++ b/data/EXP 2/exp2_run1_PCR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97D7E7-B595-F84C-A6C0-27F98CED537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74558931-D93C-4244-9F99-EE5AC30CEB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="-1020" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32100" yWindow="-1020" windowWidth="27780" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cq results" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cq results'!$E$1:$E$97</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -480,9 +480,6 @@
     <t>HSC70</t>
   </si>
   <si>
-    <t>GABB45</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>average Cq (HSP70)</t>
+  </si>
+  <si>
+    <t>GADD45</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1045,6 +1045,9 @@
     <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D1C77-129B-D043-927C-FCCCF9546E4E}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="C50" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58:G92"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1401,8 +1404,8 @@
       <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>146</v>
+      <c r="C2" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>13</v>
@@ -1427,8 +1430,8 @@
       <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>146</v>
+      <c r="C3" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>13</v>
@@ -1448,8 +1451,8 @@
       <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>146</v>
+      <c r="C4" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>13</v>
@@ -1464,7 +1467,7 @@
         <v>39.08</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1474,8 +1477,8 @@
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>146</v>
+      <c r="C5" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>13</v>
@@ -1493,8 +1496,8 @@
       <c r="B6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>146</v>
+      <c r="C6" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>13</v>
@@ -1519,8 +1522,8 @@
       <c r="B7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>146</v>
+      <c r="C7" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>13</v>
@@ -1540,8 +1543,8 @@
       <c r="B8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>146</v>
+      <c r="C8" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>13</v>
@@ -1566,8 +1569,8 @@
       <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>146</v>
+      <c r="C9" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>13</v>
@@ -1587,8 +1590,8 @@
       <c r="B10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>146</v>
+      <c r="C10" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>13</v>
@@ -1606,8 +1609,8 @@
       <c r="B11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>146</v>
+      <c r="C11" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>13</v>
@@ -1625,8 +1628,8 @@
       <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>146</v>
+      <c r="C12" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>13</v>
@@ -1651,8 +1654,8 @@
       <c r="B13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>146</v>
+      <c r="C13" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>13</v>
@@ -1672,8 +1675,8 @@
       <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>146</v>
+      <c r="C14" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>13</v>
@@ -1698,8 +1701,8 @@
       <c r="B15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>146</v>
+      <c r="C15" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>13</v>
@@ -1719,8 +1722,8 @@
       <c r="B16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>146</v>
+      <c r="C16" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>13</v>
@@ -1745,8 +1748,8 @@
       <c r="B17" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>146</v>
+      <c r="C17" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>13</v>
@@ -1766,8 +1769,8 @@
       <c r="B18" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>146</v>
+      <c r="C18" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>13</v>
@@ -1792,8 +1795,8 @@
       <c r="B19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>146</v>
+      <c r="C19" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>13</v>
@@ -1813,8 +1816,8 @@
       <c r="B20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>146</v>
+      <c r="C20" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>13</v>
@@ -1832,8 +1835,8 @@
       <c r="B21" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>146</v>
+      <c r="C21" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>13</v>
@@ -1851,8 +1854,8 @@
       <c r="B22" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>146</v>
+      <c r="C22" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>13</v>
@@ -1870,8 +1873,8 @@
       <c r="B23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>146</v>
+      <c r="C23" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>13</v>
@@ -1889,8 +1892,8 @@
       <c r="B24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>146</v>
+      <c r="C24" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>13</v>
@@ -1908,8 +1911,8 @@
       <c r="B25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>146</v>
+      <c r="C25" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>13</v>
@@ -1927,8 +1930,8 @@
       <c r="B26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>146</v>
+      <c r="C26" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>13</v>
@@ -1953,8 +1956,8 @@
       <c r="B27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>146</v>
+      <c r="C27" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>13</v>
@@ -1974,8 +1977,8 @@
       <c r="B28" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>146</v>
+      <c r="C28" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>13</v>
@@ -2000,8 +2003,8 @@
       <c r="B29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>146</v>
+      <c r="C29" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>13</v>
@@ -2021,8 +2024,8 @@
       <c r="B30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>146</v>
+      <c r="C30" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>13</v>
@@ -2037,7 +2040,7 @@
         <v>39.6</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2047,8 +2050,8 @@
       <c r="B31" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>146</v>
+      <c r="C31" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>13</v>
@@ -2066,8 +2069,8 @@
       <c r="B32" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>146</v>
+      <c r="C32" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>13</v>
@@ -2085,8 +2088,8 @@
       <c r="B33" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>146</v>
+      <c r="C33" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>13</v>
@@ -2104,8 +2107,8 @@
       <c r="B34" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>146</v>
+      <c r="C34" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>13</v>
@@ -2130,8 +2133,8 @@
       <c r="B35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>146</v>
+      <c r="C35" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>13</v>
@@ -2151,8 +2154,8 @@
       <c r="B36" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>146</v>
+      <c r="C36" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>13</v>
@@ -2165,7 +2168,7 @@
         <v>38.08</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -2175,8 +2178,8 @@
       <c r="B37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>146</v>
+      <c r="C37" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>13</v>
@@ -2196,14 +2199,14 @@
       <c r="B38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="34" t="s">
         <v>146</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="F38" s="31"/>
       <c r="H38" s="32">
@@ -2217,14 +2220,14 @@
       <c r="B39" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="34" t="s">
         <v>146</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="F39" s="31"/>
       <c r="H39" s="32"/>
@@ -2236,8 +2239,8 @@
       <c r="B40" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>146</v>
+      <c r="C40" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>13</v>
@@ -2253,8 +2256,8 @@
       <c r="B41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>146</v>
+      <c r="C41" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>13</v>
@@ -2270,8 +2273,8 @@
       <c r="B42" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>146</v>
+      <c r="C42" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>13</v>
@@ -2287,8 +2290,8 @@
       <c r="B43" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>146</v>
+      <c r="C43" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>13</v>
@@ -2304,8 +2307,8 @@
       <c r="B44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>146</v>
+      <c r="C44" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>13</v>
@@ -2321,8 +2324,8 @@
       <c r="B45" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>146</v>
+      <c r="C45" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>13</v>
@@ -2338,8 +2341,8 @@
       <c r="B46" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>146</v>
+      <c r="C46" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>13</v>
@@ -2355,8 +2358,8 @@
       <c r="B47" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>146</v>
+      <c r="C47" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>13</v>
@@ -2372,8 +2375,8 @@
       <c r="B48" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>146</v>
+      <c r="C48" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>13</v>
@@ -2389,8 +2392,8 @@
       <c r="B49" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="30" t="s">
-        <v>146</v>
+      <c r="C49" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>13</v>
@@ -2406,8 +2409,8 @@
       <c r="B50" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="30" t="s">
-        <v>146</v>
+      <c r="C50" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>13</v>
@@ -2423,8 +2426,8 @@
       <c r="B51" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="30" t="s">
-        <v>146</v>
+      <c r="C51" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>13</v>
@@ -2440,8 +2443,8 @@
       <c r="B52" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="30" t="s">
-        <v>146</v>
+      <c r="C52" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>13</v>
@@ -2457,8 +2460,8 @@
       <c r="B53" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>146</v>
+      <c r="C53" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>13</v>
@@ -2474,8 +2477,8 @@
       <c r="B54" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>146</v>
+      <c r="C54" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>13</v>
@@ -2491,8 +2494,8 @@
       <c r="B55" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="30" t="s">
-        <v>146</v>
+      <c r="C55" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>13</v>
@@ -2508,8 +2511,8 @@
       <c r="B56" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>146</v>
+      <c r="C56" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>13</v>
@@ -2525,8 +2528,8 @@
       <c r="B57" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>146</v>
+      <c r="C57" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>13</v>
@@ -3124,7 +3127,7 @@
         <v>27.41</v>
       </c>
       <c r="H82" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
@@ -3416,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95">
@@ -3473,7 +3476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC933DB-52CD-9A4B-8135-19191370B34C}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3493,34 +3496,34 @@
         <v>4</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>158</v>
-      </c>
       <c r="E1" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="K1" s="59" t="s">
         <v>154</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="48" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -4009,13 +4012,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4027,13 +4030,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21">
         <v>0</v>

--- a/data/EXP 2/exp2_run1_PCR.xlsx
+++ b/data/EXP 2/exp2_run1_PCR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74558931-D93C-4244-9F99-EE5AC30CEB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB5B3D-6021-B64D-92E1-B0AFB0ED9EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="-1020" windowWidth="27780" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32100" yWindow="-1020" windowWidth="27780" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cq results" sheetId="4" r:id="rId1"/>
@@ -510,13 +510,13 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>average Cq (GABB45)</t>
-  </si>
-  <si>
-    <t>average Cq (HSP70)</t>
-  </si>
-  <si>
     <t>GADD45</t>
+  </si>
+  <si>
+    <t>average Cq (GADD45)</t>
+  </si>
+  <si>
+    <t>average Cq (HSC70)</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D1C77-129B-D043-927C-FCCCF9546E4E}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C57"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1405,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>13</v>
@@ -1431,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>13</v>
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>13</v>
@@ -1478,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>13</v>
@@ -1497,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>13</v>
@@ -1523,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>13</v>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>13</v>
@@ -1570,7 +1570,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>13</v>
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>13</v>
@@ -1610,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>13</v>
@@ -1655,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>13</v>
@@ -1676,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>13</v>
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>13</v>
@@ -1723,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>13</v>
@@ -1749,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>13</v>
@@ -1770,7 +1770,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>13</v>
@@ -1796,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>13</v>
@@ -1817,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>13</v>
@@ -1836,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>13</v>
@@ -1855,7 +1855,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>13</v>
@@ -1874,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>13</v>
@@ -1893,7 +1893,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>13</v>
@@ -1912,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>13</v>
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>13</v>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>13</v>
@@ -1978,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>13</v>
@@ -2004,7 +2004,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>13</v>
@@ -2025,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>13</v>
@@ -2051,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>13</v>
@@ -2070,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>13</v>
@@ -2089,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>13</v>
@@ -2108,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>13</v>
@@ -2134,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>13</v>
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>13</v>
@@ -2179,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>13</v>
@@ -2200,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>13</v>
@@ -2221,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>13</v>
@@ -2240,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>13</v>
@@ -2257,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>13</v>
@@ -2274,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>13</v>
@@ -2291,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>13</v>
@@ -2308,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>13</v>
@@ -2325,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>13</v>
@@ -2342,7 +2342,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>13</v>
@@ -2359,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>13</v>
@@ -2376,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>13</v>
@@ -2393,7 +2393,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>13</v>
@@ -2410,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>13</v>
@@ -2427,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>13</v>
@@ -2444,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>13</v>
@@ -2461,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>13</v>
@@ -2478,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>13</v>
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>13</v>
@@ -2512,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>13</v>
@@ -2529,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>13</v>
@@ -3476,16 +3476,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC933DB-52CD-9A4B-8135-19191370B34C}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="12.75" customWidth="1"/>
@@ -3496,13 +3497,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>155</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>148</v>
